--- a/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.022585416813459</v>
+      </c>
+      <c r="D2">
+        <v>1.038848104108431</v>
+      </c>
+      <c r="E2">
+        <v>1.030616318278288</v>
+      </c>
+      <c r="F2">
+        <v>1.040175065902577</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.056909194914278</v>
+      </c>
+      <c r="J2">
+        <v>1.044110966236529</v>
+      </c>
+      <c r="K2">
+        <v>1.049791507001625</v>
+      </c>
+      <c r="L2">
+        <v>1.041664981391734</v>
+      </c>
+      <c r="M2">
+        <v>1.051101695465439</v>
+      </c>
+      <c r="N2">
+        <v>1.017583218554026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.028241510840332</v>
+      </c>
+      <c r="D3">
+        <v>1.043293107567666</v>
+      </c>
+      <c r="E3">
+        <v>1.035786373473004</v>
+      </c>
+      <c r="F3">
+        <v>1.045386019662834</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.059187969623796</v>
+      </c>
+      <c r="J3">
+        <v>1.047990810963572</v>
+      </c>
+      <c r="K3">
+        <v>1.053400464193311</v>
+      </c>
+      <c r="L3">
+        <v>1.04598095521128</v>
+      </c>
+      <c r="M3">
+        <v>1.055469333201053</v>
+      </c>
+      <c r="N3">
+        <v>1.018963918208576</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.03181348048002</v>
+      </c>
+      <c r="D4">
+        <v>1.046102970566599</v>
+      </c>
+      <c r="E4">
+        <v>1.039056446166258</v>
+      </c>
+      <c r="F4">
+        <v>1.048682889419878</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.060616198170313</v>
+      </c>
+      <c r="J4">
+        <v>1.050436976351756</v>
+      </c>
+      <c r="K4">
+        <v>1.055675079451181</v>
+      </c>
+      <c r="L4">
+        <v>1.048705282852301</v>
+      </c>
+      <c r="M4">
+        <v>1.058227222250655</v>
+      </c>
+      <c r="N4">
+        <v>1.019833307627963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.03329500178951</v>
+      </c>
+      <c r="D5">
+        <v>1.047268991299627</v>
+      </c>
+      <c r="E5">
+        <v>1.040413919797714</v>
+      </c>
+      <c r="F5">
+        <v>1.050051702064967</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.061205922827511</v>
+      </c>
+      <c r="J5">
+        <v>1.051450541027702</v>
+      </c>
+      <c r="K5">
+        <v>1.056617370105526</v>
+      </c>
+      <c r="L5">
+        <v>1.04983487381269</v>
+      </c>
+      <c r="M5">
+        <v>1.059370950423879</v>
+      </c>
+      <c r="N5">
+        <v>1.02019325585524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.03354260040691</v>
+      </c>
+      <c r="D6">
+        <v>1.047463895159925</v>
+      </c>
+      <c r="E6">
+        <v>1.040640854457327</v>
+      </c>
+      <c r="F6">
+        <v>1.050280544738466</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.061304323185304</v>
+      </c>
+      <c r="J6">
+        <v>1.051619871774946</v>
+      </c>
+      <c r="K6">
+        <v>1.056774781885949</v>
+      </c>
+      <c r="L6">
+        <v>1.050023633866616</v>
+      </c>
+      <c r="M6">
+        <v>1.059562085726912</v>
+      </c>
+      <c r="N6">
+        <v>1.02025337346019</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.031833354594659</v>
+      </c>
+      <c r="D7">
+        <v>1.046118610080213</v>
+      </c>
+      <c r="E7">
+        <v>1.039074651660582</v>
+      </c>
+      <c r="F7">
+        <v>1.048701246145423</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.060624119668622</v>
+      </c>
+      <c r="J7">
+        <v>1.050450577048043</v>
+      </c>
+      <c r="K7">
+        <v>1.055687724518682</v>
+      </c>
+      <c r="L7">
+        <v>1.04872043741552</v>
+      </c>
+      <c r="M7">
+        <v>1.058242565610234</v>
+      </c>
+      <c r="N7">
+        <v>1.019838138790426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.024515686557009</v>
+      </c>
+      <c r="D8">
+        <v>1.040364449641049</v>
+      </c>
+      <c r="E8">
+        <v>1.032379627435344</v>
+      </c>
+      <c r="F8">
+        <v>1.041952124053523</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.05768913851284</v>
+      </c>
+      <c r="J8">
+        <v>1.045435877939098</v>
+      </c>
+      <c r="K8">
+        <v>1.051024068410843</v>
+      </c>
+      <c r="L8">
+        <v>1.043138155916582</v>
+      </c>
+      <c r="M8">
+        <v>1.052592300625586</v>
+      </c>
+      <c r="N8">
+        <v>1.018054933375253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.010903798072597</v>
+      </c>
+      <c r="D9">
+        <v>1.029685853818419</v>
+      </c>
+      <c r="E9">
+        <v>1.019968637141405</v>
+      </c>
+      <c r="F9">
+        <v>1.029448671325847</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.05214443422509</v>
+      </c>
+      <c r="J9">
+        <v>1.036077304757406</v>
+      </c>
+      <c r="K9">
+        <v>1.042314983474806</v>
+      </c>
+      <c r="L9">
+        <v>1.032745836798571</v>
+      </c>
+      <c r="M9">
+        <v>1.04208137276519</v>
+      </c>
+      <c r="N9">
+        <v>1.014718793391443</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.001280065307742</v>
+      </c>
+      <c r="D10">
+        <v>1.022157584133325</v>
+      </c>
+      <c r="E10">
+        <v>1.01122630890776</v>
+      </c>
+      <c r="F10">
+        <v>1.020647134345287</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.048169368422398</v>
+      </c>
+      <c r="J10">
+        <v>1.029442987853915</v>
+      </c>
+      <c r="K10">
+        <v>1.036137978280784</v>
+      </c>
+      <c r="L10">
+        <v>1.025395784670565</v>
+      </c>
+      <c r="M10">
+        <v>1.03465334358184</v>
+      </c>
+      <c r="N10">
+        <v>1.012349186874501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9969659207618762</v>
+      </c>
+      <c r="D11">
+        <v>1.018789062897878</v>
+      </c>
+      <c r="E11">
+        <v>1.007315794521352</v>
+      </c>
+      <c r="F11">
+        <v>1.016711694932471</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.04637509281493</v>
+      </c>
+      <c r="J11">
+        <v>1.026465467983807</v>
+      </c>
+      <c r="K11">
+        <v>1.03336513555142</v>
+      </c>
+      <c r="L11">
+        <v>1.022101051967955</v>
+      </c>
+      <c r="M11">
+        <v>1.031325187842172</v>
+      </c>
+      <c r="N11">
+        <v>1.011284835058964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9953397893342867</v>
+      </c>
+      <c r="D12">
+        <v>1.017520411776311</v>
+      </c>
+      <c r="E12">
+        <v>1.005843159560179</v>
+      </c>
+      <c r="F12">
+        <v>1.015229922384885</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.045696988916701</v>
+      </c>
+      <c r="J12">
+        <v>1.02534269558944</v>
+      </c>
+      <c r="K12">
+        <v>1.032319473912669</v>
+      </c>
+      <c r="L12">
+        <v>1.020859263567998</v>
+      </c>
+      <c r="M12">
+        <v>1.030071044317093</v>
+      </c>
+      <c r="N12">
+        <v>1.010883377895784</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9956896979895841</v>
+      </c>
+      <c r="D13">
+        <v>1.017793349306128</v>
+      </c>
+      <c r="E13">
+        <v>1.006159976520565</v>
+      </c>
+      <c r="F13">
+        <v>1.015548693688412</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.045842981979177</v>
+      </c>
+      <c r="J13">
+        <v>1.02558431159011</v>
+      </c>
+      <c r="K13">
+        <v>1.032544498873611</v>
+      </c>
+      <c r="L13">
+        <v>1.02112646429925</v>
+      </c>
+      <c r="M13">
+        <v>1.030340892415412</v>
+      </c>
+      <c r="N13">
+        <v>1.010969774361154</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.996831996676479</v>
+      </c>
+      <c r="D14">
+        <v>1.018684558111394</v>
+      </c>
+      <c r="E14">
+        <v>1.007194484016813</v>
+      </c>
+      <c r="F14">
+        <v>1.016589626564953</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.046319281790056</v>
+      </c>
+      <c r="J14">
+        <v>1.026373008119329</v>
+      </c>
+      <c r="K14">
+        <v>1.033279027045273</v>
+      </c>
+      <c r="L14">
+        <v>1.021998779027393</v>
+      </c>
+      <c r="M14">
+        <v>1.031221892352638</v>
+      </c>
+      <c r="N14">
+        <v>1.011251777290502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9975326188356876</v>
+      </c>
+      <c r="D15">
+        <v>1.01923131682043</v>
+      </c>
+      <c r="E15">
+        <v>1.007829174067716</v>
+      </c>
+      <c r="F15">
+        <v>1.017228291934823</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.0466111840973</v>
+      </c>
+      <c r="J15">
+        <v>1.026856692610805</v>
+      </c>
+      <c r="K15">
+        <v>1.033729482996016</v>
+      </c>
+      <c r="L15">
+        <v>1.02253382296577</v>
+      </c>
+      <c r="M15">
+        <v>1.031762295715421</v>
+      </c>
+      <c r="N15">
+        <v>1.01142470783634</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.001563152090363</v>
+      </c>
+      <c r="D16">
+        <v>1.022378759577468</v>
+      </c>
+      <c r="E16">
+        <v>1.011483093397109</v>
+      </c>
+      <c r="F16">
+        <v>1.020905589161258</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.048286854969358</v>
+      </c>
+      <c r="J16">
+        <v>1.029638300929418</v>
+      </c>
+      <c r="K16">
+        <v>1.036319854895306</v>
+      </c>
+      <c r="L16">
+        <v>1.025611988668083</v>
+      </c>
+      <c r="M16">
+        <v>1.034871773637186</v>
+      </c>
+      <c r="N16">
+        <v>1.012418987888377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.004050971454831</v>
+      </c>
+      <c r="D17">
+        <v>1.024323213106628</v>
+      </c>
+      <c r="E17">
+        <v>1.013740737518083</v>
+      </c>
+      <c r="F17">
+        <v>1.023178097462517</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.049317958030796</v>
+      </c>
+      <c r="J17">
+        <v>1.03135436198432</v>
+      </c>
+      <c r="K17">
+        <v>1.037917797947027</v>
+      </c>
+      <c r="L17">
+        <v>1.027512056175078</v>
+      </c>
+      <c r="M17">
+        <v>1.036791579424297</v>
+      </c>
+      <c r="N17">
+        <v>1.013032179139442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.005488004817952</v>
+      </c>
+      <c r="D18">
+        <v>1.025446968139211</v>
+      </c>
+      <c r="E18">
+        <v>1.015045614383003</v>
+      </c>
+      <c r="F18">
+        <v>1.024491712108332</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.049912382473737</v>
+      </c>
+      <c r="J18">
+        <v>1.032345273253213</v>
+      </c>
+      <c r="K18">
+        <v>1.03884044929469</v>
+      </c>
+      <c r="L18">
+        <v>1.02860959816785</v>
+      </c>
+      <c r="M18">
+        <v>1.037900666745274</v>
+      </c>
+      <c r="N18">
+        <v>1.013386173850136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.005975655233128</v>
+      </c>
+      <c r="D19">
+        <v>1.025828405254188</v>
+      </c>
+      <c r="E19">
+        <v>1.015488551474072</v>
+      </c>
+      <c r="F19">
+        <v>1.024937639666806</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.050113897388053</v>
+      </c>
+      <c r="J19">
+        <v>1.032681475843225</v>
+      </c>
+      <c r="K19">
+        <v>1.039153482517412</v>
+      </c>
+      <c r="L19">
+        <v>1.028982043526809</v>
+      </c>
+      <c r="M19">
+        <v>1.038277054011913</v>
+      </c>
+      <c r="N19">
+        <v>1.013506264795494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.003785518216338</v>
+      </c>
+      <c r="D20">
+        <v>1.024115676199558</v>
+      </c>
+      <c r="E20">
+        <v>1.013499760753933</v>
+      </c>
+      <c r="F20">
+        <v>1.022935518811948</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.049208059077183</v>
+      </c>
+      <c r="J20">
+        <v>1.031171290386129</v>
+      </c>
+      <c r="K20">
+        <v>1.037747332893085</v>
+      </c>
+      <c r="L20">
+        <v>1.027309315179211</v>
+      </c>
+      <c r="M20">
+        <v>1.036586717298075</v>
+      </c>
+      <c r="N20">
+        <v>1.012966771530805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9964962849210182</v>
+      </c>
+      <c r="D21">
+        <v>1.018422609859243</v>
+      </c>
+      <c r="E21">
+        <v>1.006890413225942</v>
+      </c>
+      <c r="F21">
+        <v>1.016283660209643</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.046179349982316</v>
+      </c>
+      <c r="J21">
+        <v>1.026141228952177</v>
+      </c>
+      <c r="K21">
+        <v>1.033063168452621</v>
+      </c>
+      <c r="L21">
+        <v>1.02174240999782</v>
+      </c>
+      <c r="M21">
+        <v>1.030962964024289</v>
+      </c>
+      <c r="N21">
+        <v>1.011168906131117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9917754354192541</v>
+      </c>
+      <c r="D22">
+        <v>1.014741676490732</v>
+      </c>
+      <c r="E22">
+        <v>1.002617845535064</v>
+      </c>
+      <c r="F22">
+        <v>1.011985070518012</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.044207422372932</v>
+      </c>
+      <c r="J22">
+        <v>1.022880905929268</v>
+      </c>
+      <c r="K22">
+        <v>1.030026647397861</v>
+      </c>
+      <c r="L22">
+        <v>1.018137620168176</v>
+      </c>
+      <c r="M22">
+        <v>1.027322781968707</v>
+      </c>
+      <c r="N22">
+        <v>1.010002968208221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9942916783156232</v>
+      </c>
+      <c r="D23">
+        <v>1.016703020745653</v>
+      </c>
+      <c r="E23">
+        <v>1.004894375912933</v>
+      </c>
+      <c r="F23">
+        <v>1.014275323634787</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.045259426824553</v>
+      </c>
+      <c r="J23">
+        <v>1.024618901446562</v>
+      </c>
+      <c r="K23">
+        <v>1.031645371595118</v>
+      </c>
+      <c r="L23">
+        <v>1.020058914455325</v>
+      </c>
+      <c r="M23">
+        <v>1.02926280198034</v>
+      </c>
+      <c r="N23">
+        <v>1.010624551155496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.003905508471003</v>
+      </c>
+      <c r="D24">
+        <v>1.024209485289395</v>
+      </c>
+      <c r="E24">
+        <v>1.013608684671303</v>
+      </c>
+      <c r="F24">
+        <v>1.023045166344497</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.049257739269013</v>
+      </c>
+      <c r="J24">
+        <v>1.031254043505034</v>
+      </c>
+      <c r="K24">
+        <v>1.037824387697129</v>
+      </c>
+      <c r="L24">
+        <v>1.027400958199772</v>
+      </c>
+      <c r="M24">
+        <v>1.036679318666908</v>
+      </c>
+      <c r="N24">
+        <v>1.012996337726933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.014514338459454</v>
+      </c>
+      <c r="D25">
+        <v>1.032514989298938</v>
+      </c>
+      <c r="E25">
+        <v>1.023255348693604</v>
+      </c>
+      <c r="F25">
+        <v>1.03275889901977</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.053624792866853</v>
+      </c>
+      <c r="J25">
+        <v>1.038562919414929</v>
+      </c>
+      <c r="K25">
+        <v>1.044628681611391</v>
+      </c>
+      <c r="L25">
+        <v>1.035503071315205</v>
+      </c>
+      <c r="M25">
+        <v>1.044869101942469</v>
+      </c>
+      <c r="N25">
+        <v>1.015605727011999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022585416813459</v>
+        <v>1.05061087906329</v>
       </c>
       <c r="D2">
-        <v>1.038848104108431</v>
+        <v>1.055204296268615</v>
       </c>
       <c r="E2">
-        <v>1.030616318278288</v>
+        <v>1.054286934810333</v>
       </c>
       <c r="F2">
-        <v>1.040175065902577</v>
+        <v>1.063276483013897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056909194914278</v>
+        <v>1.048324086885254</v>
       </c>
       <c r="J2">
-        <v>1.044110966236529</v>
+        <v>1.0556431201991</v>
       </c>
       <c r="K2">
-        <v>1.049791507001625</v>
+        <v>1.057945397268791</v>
       </c>
       <c r="L2">
-        <v>1.041664981391734</v>
+        <v>1.057030561868178</v>
       </c>
       <c r="M2">
-        <v>1.051101695465439</v>
+        <v>1.065995559769081</v>
       </c>
       <c r="N2">
-        <v>1.017583218554026</v>
+        <v>1.022242510060237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028241510840332</v>
+        <v>1.051763122327797</v>
       </c>
       <c r="D3">
-        <v>1.043293107567666</v>
+        <v>1.056125336518334</v>
       </c>
       <c r="E3">
-        <v>1.035786373473004</v>
+        <v>1.055389113779813</v>
       </c>
       <c r="F3">
-        <v>1.045386019662834</v>
+        <v>1.06439126579098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059187969623796</v>
+        <v>1.048710279862736</v>
       </c>
       <c r="J3">
-        <v>1.047990810963572</v>
+        <v>1.056444125064023</v>
       </c>
       <c r="K3">
-        <v>1.053400464193311</v>
+        <v>1.058679557808606</v>
       </c>
       <c r="L3">
-        <v>1.04598095521128</v>
+        <v>1.05794521529047</v>
       </c>
       <c r="M3">
-        <v>1.055469333201053</v>
+        <v>1.066924569296595</v>
       </c>
       <c r="N3">
-        <v>1.018963918208576</v>
+        <v>1.022520355897334</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03181348048002</v>
+        <v>1.052508505766718</v>
       </c>
       <c r="D4">
-        <v>1.046102970566599</v>
+        <v>1.056721115528286</v>
       </c>
       <c r="E4">
-        <v>1.039056446166258</v>
+        <v>1.056102438297333</v>
       </c>
       <c r="F4">
-        <v>1.048682889419878</v>
+        <v>1.065112818938799</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060616198170313</v>
+        <v>1.048958757296687</v>
       </c>
       <c r="J4">
-        <v>1.050436976351756</v>
+        <v>1.056961680013071</v>
       </c>
       <c r="K4">
-        <v>1.055675079451181</v>
+        <v>1.059153783852963</v>
       </c>
       <c r="L4">
-        <v>1.048705282852301</v>
+        <v>1.05853660684775</v>
       </c>
       <c r="M4">
-        <v>1.058227222250655</v>
+        <v>1.067525323178039</v>
       </c>
       <c r="N4">
-        <v>1.019833307627963</v>
+        <v>1.022699625382956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03329500178951</v>
+        <v>1.052821819609728</v>
       </c>
       <c r="D5">
-        <v>1.047268991299627</v>
+        <v>1.056971534595196</v>
       </c>
       <c r="E5">
-        <v>1.040413919797714</v>
+        <v>1.056402354465045</v>
       </c>
       <c r="F5">
-        <v>1.050051702064967</v>
+        <v>1.065416211839209</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061205922827511</v>
+        <v>1.049062878748779</v>
       </c>
       <c r="J5">
-        <v>1.051450541027702</v>
+        <v>1.057179081519831</v>
       </c>
       <c r="K5">
-        <v>1.056617370105526</v>
+        <v>1.059352951507273</v>
       </c>
       <c r="L5">
-        <v>1.04983487381269</v>
+        <v>1.05878512074932</v>
       </c>
       <c r="M5">
-        <v>1.059370950423879</v>
+        <v>1.067777790386764</v>
       </c>
       <c r="N5">
-        <v>1.02019325585524</v>
+        <v>1.02277486699975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03354260040691</v>
+        <v>1.052874423761687</v>
       </c>
       <c r="D6">
-        <v>1.047463895159925</v>
+        <v>1.057013578347525</v>
       </c>
       <c r="E6">
-        <v>1.040640854457327</v>
+        <v>1.056452713757452</v>
       </c>
       <c r="F6">
-        <v>1.050280544738466</v>
+        <v>1.065467155909043</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061304323185304</v>
+        <v>1.049080341361461</v>
       </c>
       <c r="J6">
-        <v>1.051619871774946</v>
+        <v>1.057215573735832</v>
       </c>
       <c r="K6">
-        <v>1.056774781885949</v>
+        <v>1.059386381097013</v>
       </c>
       <c r="L6">
-        <v>1.050023633866616</v>
+        <v>1.058826841066636</v>
       </c>
       <c r="M6">
-        <v>1.059562085726912</v>
+        <v>1.067820175498897</v>
       </c>
       <c r="N6">
-        <v>1.02025337346019</v>
+        <v>1.022787493172328</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031833354594659</v>
+        <v>1.052512692458161</v>
       </c>
       <c r="D7">
-        <v>1.046118610080213</v>
+        <v>1.056724461822042</v>
       </c>
       <c r="E7">
-        <v>1.039074651660582</v>
+        <v>1.056106445655142</v>
       </c>
       <c r="F7">
-        <v>1.048701246145423</v>
+        <v>1.065116872684558</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060624119668622</v>
+        <v>1.048960149902104</v>
       </c>
       <c r="J7">
-        <v>1.050450577048043</v>
+        <v>1.056964585643566</v>
       </c>
       <c r="K7">
-        <v>1.055687724518682</v>
+        <v>1.059156445914241</v>
       </c>
       <c r="L7">
-        <v>1.04872043741552</v>
+        <v>1.058539927922639</v>
       </c>
       <c r="M7">
-        <v>1.058242565610234</v>
+        <v>1.067528697009</v>
       </c>
       <c r="N7">
-        <v>1.019838138790426</v>
+        <v>1.022700631249379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024515686557009</v>
+        <v>1.051000326245285</v>
       </c>
       <c r="D8">
-        <v>1.040364449641049</v>
+        <v>1.055515606880901</v>
       </c>
       <c r="E8">
-        <v>1.032379627435344</v>
+        <v>1.054659392622799</v>
       </c>
       <c r="F8">
-        <v>1.041952124053523</v>
+        <v>1.063653185147543</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05768913851284</v>
+        <v>1.048454895858015</v>
       </c>
       <c r="J8">
-        <v>1.045435877939098</v>
+        <v>1.055913978977238</v>
       </c>
       <c r="K8">
-        <v>1.051024068410843</v>
+        <v>1.058193681373552</v>
       </c>
       <c r="L8">
-        <v>1.043138155916582</v>
+        <v>1.057339766953835</v>
       </c>
       <c r="M8">
-        <v>1.052592300625586</v>
+        <v>1.06630960141093</v>
       </c>
       <c r="N8">
-        <v>1.018054933375253</v>
+        <v>1.022336516129219</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010903798072597</v>
+        <v>1.048333790515661</v>
       </c>
       <c r="D9">
-        <v>1.029685853818419</v>
+        <v>1.053383933239483</v>
       </c>
       <c r="E9">
-        <v>1.019968637141405</v>
+        <v>1.05211054505381</v>
       </c>
       <c r="F9">
-        <v>1.029448671325847</v>
+        <v>1.061075589471107</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05214443422509</v>
+        <v>1.047553718599808</v>
       </c>
       <c r="J9">
-        <v>1.036077304757406</v>
+        <v>1.054056911242199</v>
       </c>
       <c r="K9">
-        <v>1.042314983474806</v>
+        <v>1.056490826053803</v>
       </c>
       <c r="L9">
-        <v>1.032745836798571</v>
+        <v>1.055221448533556</v>
       </c>
       <c r="M9">
-        <v>1.04208137276519</v>
+        <v>1.064158480193386</v>
       </c>
       <c r="N9">
-        <v>1.014718793391443</v>
+        <v>1.021690947099422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001280065307742</v>
+        <v>1.04655496975178</v>
       </c>
       <c r="D10">
-        <v>1.022157584133325</v>
+        <v>1.051961768939902</v>
       </c>
       <c r="E10">
-        <v>1.01122630890776</v>
+        <v>1.050411963646495</v>
       </c>
       <c r="F10">
-        <v>1.020647134345287</v>
+        <v>1.059358227319612</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048169368422398</v>
+        <v>1.046945611609173</v>
       </c>
       <c r="J10">
-        <v>1.029442987853915</v>
+        <v>1.052814946184514</v>
       </c>
       <c r="K10">
-        <v>1.036137978280784</v>
+        <v>1.055351290867197</v>
       </c>
       <c r="L10">
-        <v>1.025395784670565</v>
+        <v>1.053806848076331</v>
       </c>
       <c r="M10">
-        <v>1.03465334358184</v>
+        <v>1.062722394310943</v>
       </c>
       <c r="N10">
-        <v>1.012349186874501</v>
+        <v>1.02125790327911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9969659207618762</v>
+        <v>1.045784432735992</v>
       </c>
       <c r="D11">
-        <v>1.018789062897878</v>
+        <v>1.051345700130885</v>
       </c>
       <c r="E11">
-        <v>1.007315794521352</v>
+        <v>1.049676600921422</v>
       </c>
       <c r="F11">
-        <v>1.016711694932471</v>
+        <v>1.058614824741769</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04637509281493</v>
+        <v>1.046680552075683</v>
       </c>
       <c r="J11">
-        <v>1.026465467983807</v>
+        <v>1.052276221311765</v>
       </c>
       <c r="K11">
-        <v>1.03336513555142</v>
+        <v>1.054856831578102</v>
       </c>
       <c r="L11">
-        <v>1.022101051967955</v>
+        <v>1.053193732679581</v>
       </c>
       <c r="M11">
-        <v>1.031325187842172</v>
+        <v>1.06210006742525</v>
       </c>
       <c r="N11">
-        <v>1.011284835058964</v>
+        <v>1.021069756532907</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9953397893342867</v>
+        <v>1.045498174711282</v>
       </c>
       <c r="D12">
-        <v>1.017520411776311</v>
+        <v>1.051116824610393</v>
       </c>
       <c r="E12">
-        <v>1.005843159560179</v>
+        <v>1.049403473453119</v>
       </c>
       <c r="F12">
-        <v>1.015229922384885</v>
+        <v>1.058338724885755</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045696988916701</v>
+        <v>1.046581834397213</v>
       </c>
       <c r="J12">
-        <v>1.02534269558944</v>
+        <v>1.05207597180703</v>
       </c>
       <c r="K12">
-        <v>1.032319473912669</v>
+        <v>1.054673011356834</v>
       </c>
       <c r="L12">
-        <v>1.020859263567998</v>
+        <v>1.052965905497459</v>
       </c>
       <c r="M12">
-        <v>1.030071044317093</v>
+        <v>1.061868832574135</v>
       </c>
       <c r="N12">
-        <v>1.010883377895784</v>
+        <v>1.020999774698017</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9956896979895841</v>
+        <v>1.045559580152235</v>
       </c>
       <c r="D13">
-        <v>1.017793349306128</v>
+        <v>1.051165921014383</v>
       </c>
       <c r="E13">
-        <v>1.006159976520565</v>
+        <v>1.049462059381821</v>
       </c>
       <c r="F13">
-        <v>1.015548693688412</v>
+        <v>1.058397947767871</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045842981979177</v>
+        <v>1.046603021574222</v>
       </c>
       <c r="J13">
-        <v>1.02558431159011</v>
+        <v>1.052118932497275</v>
       </c>
       <c r="K13">
-        <v>1.032544498873611</v>
+        <v>1.054712448492017</v>
       </c>
       <c r="L13">
-        <v>1.02112646429925</v>
+        <v>1.053014779238205</v>
       </c>
       <c r="M13">
-        <v>1.030340892415412</v>
+        <v>1.061918436641538</v>
       </c>
       <c r="N13">
-        <v>1.010969774361154</v>
+        <v>1.021014790375819</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.996831996676479</v>
+        <v>1.045760771512743</v>
       </c>
       <c r="D14">
-        <v>1.018684558111394</v>
+        <v>1.051326782031919</v>
       </c>
       <c r="E14">
-        <v>1.007194484016813</v>
+        <v>1.049654023739117</v>
       </c>
       <c r="F14">
-        <v>1.016589626564953</v>
+        <v>1.058592001575378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046319281790056</v>
+        <v>1.046672397405229</v>
       </c>
       <c r="J14">
-        <v>1.026373008119329</v>
+        <v>1.052259671550245</v>
       </c>
       <c r="K14">
-        <v>1.033279027045273</v>
+        <v>1.054841640128912</v>
       </c>
       <c r="L14">
-        <v>1.021998779027393</v>
+        <v>1.053174902231861</v>
       </c>
       <c r="M14">
-        <v>1.031221892352638</v>
+        <v>1.062080955014715</v>
       </c>
       <c r="N14">
-        <v>1.011251777290502</v>
+        <v>1.021063973767257</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9975326188356876</v>
+        <v>1.045884725964713</v>
       </c>
       <c r="D15">
-        <v>1.01923131682043</v>
+        <v>1.051425888473849</v>
       </c>
       <c r="E15">
-        <v>1.007829174067716</v>
+        <v>1.049772301796358</v>
       </c>
       <c r="F15">
-        <v>1.017228291934823</v>
+        <v>1.0587115688662</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0466111840973</v>
+        <v>1.046715107308307</v>
       </c>
       <c r="J15">
-        <v>1.026856692610805</v>
+        <v>1.052346366533542</v>
       </c>
       <c r="K15">
-        <v>1.033729482996016</v>
+        <v>1.054921218660701</v>
       </c>
       <c r="L15">
-        <v>1.02253382296577</v>
+        <v>1.053273547490623</v>
       </c>
       <c r="M15">
-        <v>1.031762295715421</v>
+        <v>1.062181077988858</v>
       </c>
       <c r="N15">
-        <v>1.01142470783634</v>
+        <v>1.021094264582862</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001563152090363</v>
+        <v>1.046606101366904</v>
       </c>
       <c r="D16">
-        <v>1.022378759577468</v>
+        <v>1.052002649809602</v>
       </c>
       <c r="E16">
-        <v>1.011483093397109</v>
+        <v>1.050460769976405</v>
       </c>
       <c r="F16">
-        <v>1.020905589161258</v>
+        <v>1.059407569181928</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048286854969358</v>
+        <v>1.04696316591955</v>
       </c>
       <c r="J16">
-        <v>1.029638300929418</v>
+        <v>1.052850679567382</v>
       </c>
       <c r="K16">
-        <v>1.036319854895306</v>
+        <v>1.055384084666634</v>
       </c>
       <c r="L16">
-        <v>1.025611988668083</v>
+        <v>1.053847526128621</v>
       </c>
       <c r="M16">
-        <v>1.034871773637186</v>
+        <v>1.062763685642102</v>
       </c>
       <c r="N16">
-        <v>1.012418987888377</v>
+        <v>1.021270376542496</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.004050971454831</v>
+        <v>1.047058520600395</v>
       </c>
       <c r="D17">
-        <v>1.024323213106628</v>
+        <v>1.052364366223598</v>
       </c>
       <c r="E17">
-        <v>1.013740737518083</v>
+        <v>1.050892662984781</v>
       </c>
       <c r="F17">
-        <v>1.023178097462517</v>
+        <v>1.059844211690571</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049317958030796</v>
+        <v>1.047118298892474</v>
       </c>
       <c r="J17">
-        <v>1.03135436198432</v>
+        <v>1.053166767882767</v>
       </c>
       <c r="K17">
-        <v>1.037917797947027</v>
+        <v>1.055674151130205</v>
       </c>
       <c r="L17">
-        <v>1.027512056175078</v>
+        <v>1.054207410634918</v>
       </c>
       <c r="M17">
-        <v>1.036791579424297</v>
+        <v>1.063129007553906</v>
       </c>
       <c r="N17">
-        <v>1.013032179139442</v>
+        <v>1.02138067651657</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005488004817952</v>
+        <v>1.047322380658059</v>
       </c>
       <c r="D18">
-        <v>1.025446968139211</v>
+        <v>1.052575324030793</v>
       </c>
       <c r="E18">
-        <v>1.015045614383003</v>
+        <v>1.051144591900199</v>
       </c>
       <c r="F18">
-        <v>1.024491712108332</v>
+        <v>1.060098919811301</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049912382473737</v>
+        <v>1.047208616983323</v>
       </c>
       <c r="J18">
-        <v>1.032345273253213</v>
+        <v>1.053351045660083</v>
       </c>
       <c r="K18">
-        <v>1.03884044929469</v>
+        <v>1.055843242373488</v>
       </c>
       <c r="L18">
-        <v>1.02860959816785</v>
+        <v>1.054417268897269</v>
       </c>
       <c r="M18">
-        <v>1.037900666745274</v>
+        <v>1.063342046218292</v>
       </c>
       <c r="N18">
-        <v>1.013386173850136</v>
+        <v>1.021444951283411</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005975655233128</v>
+        <v>1.047412345352462</v>
       </c>
       <c r="D19">
-        <v>1.025828405254188</v>
+        <v>1.052647250929459</v>
       </c>
       <c r="E19">
-        <v>1.015488551474072</v>
+        <v>1.051230495395924</v>
       </c>
       <c r="F19">
-        <v>1.024937639666806</v>
+        <v>1.060185772451149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050113897388053</v>
+        <v>1.047239384580944</v>
       </c>
       <c r="J19">
-        <v>1.032681475843225</v>
+        <v>1.053413864183199</v>
       </c>
       <c r="K19">
-        <v>1.039153482517412</v>
+        <v>1.055900881245934</v>
       </c>
       <c r="L19">
-        <v>1.028982043526809</v>
+        <v>1.054488815627896</v>
       </c>
       <c r="M19">
-        <v>1.038277054011913</v>
+        <v>1.063414678883114</v>
       </c>
       <c r="N19">
-        <v>1.013506264795494</v>
+        <v>1.021466856919838</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003785518216338</v>
+        <v>1.047009983251487</v>
       </c>
       <c r="D20">
-        <v>1.024115676199558</v>
+        <v>1.05232556009321</v>
       </c>
       <c r="E20">
-        <v>1.013499760753933</v>
+        <v>1.050846323612851</v>
       </c>
       <c r="F20">
-        <v>1.022935518811948</v>
+        <v>1.059797361820704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049208059077183</v>
+        <v>1.047101672009642</v>
       </c>
       <c r="J20">
-        <v>1.031171290386129</v>
+        <v>1.053132864037164</v>
       </c>
       <c r="K20">
-        <v>1.037747332893085</v>
+        <v>1.055643040053512</v>
       </c>
       <c r="L20">
-        <v>1.027309315179211</v>
+        <v>1.054168804262339</v>
       </c>
       <c r="M20">
-        <v>1.036586717298075</v>
+        <v>1.063089816882575</v>
       </c>
       <c r="N20">
-        <v>1.012966771530805</v>
+        <v>1.021368848719615</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9964962849210182</v>
+        <v>1.045701526963468</v>
       </c>
       <c r="D21">
-        <v>1.018422609859243</v>
+        <v>1.051279413585387</v>
       </c>
       <c r="E21">
-        <v>1.006890413225942</v>
+        <v>1.049597494505732</v>
       </c>
       <c r="F21">
-        <v>1.016283660209643</v>
+        <v>1.058534856664501</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046179349982316</v>
+        <v>1.046651975210352</v>
       </c>
       <c r="J21">
-        <v>1.026141228952177</v>
+        <v>1.052218231365307</v>
       </c>
       <c r="K21">
-        <v>1.033063168452621</v>
+        <v>1.054803600725555</v>
       </c>
       <c r="L21">
-        <v>1.02174240999782</v>
+        <v>1.053127752461838</v>
       </c>
       <c r="M21">
-        <v>1.030962964024289</v>
+        <v>1.062033099481023</v>
       </c>
       <c r="N21">
-        <v>1.011168906131117</v>
+        <v>1.021049493129426</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9917754354192541</v>
+        <v>1.044878579965734</v>
       </c>
       <c r="D22">
-        <v>1.014741676490732</v>
+        <v>1.050621427186276</v>
       </c>
       <c r="E22">
-        <v>1.002617845535064</v>
+        <v>1.048812415365079</v>
       </c>
       <c r="F22">
-        <v>1.011985070518012</v>
+        <v>1.057741259733471</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044207422372932</v>
+        <v>1.0463677124191</v>
       </c>
       <c r="J22">
-        <v>1.022880905929268</v>
+        <v>1.05164233707105</v>
       </c>
       <c r="K22">
-        <v>1.030026647397861</v>
+        <v>1.054274908778413</v>
       </c>
       <c r="L22">
-        <v>1.018137620168176</v>
+        <v>1.052472687428917</v>
       </c>
       <c r="M22">
-        <v>1.027322781968707</v>
+        <v>1.06136826525987</v>
       </c>
       <c r="N22">
-        <v>1.010002968208221</v>
+        <v>1.020848147471501</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9942916783156232</v>
+        <v>1.045314865806429</v>
       </c>
       <c r="D23">
-        <v>1.016703020745653</v>
+        <v>1.050970260515174</v>
       </c>
       <c r="E23">
-        <v>1.004894375912933</v>
+        <v>1.049228590706587</v>
       </c>
       <c r="F23">
-        <v>1.014275323634787</v>
+        <v>1.058161942816686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045259426824553</v>
+        <v>1.046518549825703</v>
       </c>
       <c r="J23">
-        <v>1.024618901446562</v>
+        <v>1.051947708394041</v>
       </c>
       <c r="K23">
-        <v>1.031645371595118</v>
+        <v>1.05455526426417</v>
       </c>
       <c r="L23">
-        <v>1.020058914455325</v>
+        <v>1.052819998920523</v>
       </c>
       <c r="M23">
-        <v>1.02926280198034</v>
+        <v>1.061720747932307</v>
       </c>
       <c r="N23">
-        <v>1.010624551155496</v>
+        <v>1.020954937211498</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003905508471003</v>
+        <v>1.047031915277531</v>
       </c>
       <c r="D24">
-        <v>1.024209485289395</v>
+        <v>1.052343094990911</v>
       </c>
       <c r="E24">
-        <v>1.013608684671303</v>
+        <v>1.050867262339741</v>
       </c>
       <c r="F24">
-        <v>1.023045166344497</v>
+        <v>1.059818531192149</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049257739269013</v>
+        <v>1.047109185502271</v>
       </c>
       <c r="J24">
-        <v>1.031254043505034</v>
+        <v>1.05314818400706</v>
       </c>
       <c r="K24">
-        <v>1.037824387697129</v>
+        <v>1.055657098117432</v>
       </c>
       <c r="L24">
-        <v>1.027400958199772</v>
+        <v>1.054186248993876</v>
       </c>
       <c r="M24">
-        <v>1.036679318666908</v>
+        <v>1.063107525606221</v>
       </c>
       <c r="N24">
-        <v>1.012996337726933</v>
+        <v>1.021374193381385</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014514338459454</v>
+        <v>1.04902334683433</v>
       </c>
       <c r="D25">
-        <v>1.032514989298938</v>
+        <v>1.053935204666029</v>
       </c>
       <c r="E25">
-        <v>1.023255348693604</v>
+        <v>1.052769364797047</v>
       </c>
       <c r="F25">
-        <v>1.03275889901977</v>
+        <v>1.061741773888885</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053624792866853</v>
+        <v>1.047787983355438</v>
       </c>
       <c r="J25">
-        <v>1.038562919414929</v>
+        <v>1.054537695434413</v>
       </c>
       <c r="K25">
-        <v>1.044628681611391</v>
+        <v>1.056931810016625</v>
       </c>
       <c r="L25">
-        <v>1.035503071315205</v>
+        <v>1.055769502070135</v>
       </c>
       <c r="M25">
-        <v>1.044869101942469</v>
+        <v>1.064714946876524</v>
       </c>
       <c r="N25">
-        <v>1.015605727011999</v>
+        <v>1.021858311240093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05061087906329</v>
+        <v>1.022585416813458</v>
       </c>
       <c r="D2">
-        <v>1.055204296268615</v>
+        <v>1.038848104108429</v>
       </c>
       <c r="E2">
-        <v>1.054286934810333</v>
+        <v>1.030616318278288</v>
       </c>
       <c r="F2">
-        <v>1.063276483013897</v>
+        <v>1.040175065902577</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048324086885254</v>
+        <v>1.056909194914277</v>
       </c>
       <c r="J2">
-        <v>1.0556431201991</v>
+        <v>1.044110966236528</v>
       </c>
       <c r="K2">
-        <v>1.057945397268791</v>
+        <v>1.049791507001625</v>
       </c>
       <c r="L2">
-        <v>1.057030561868178</v>
+        <v>1.041664981391733</v>
       </c>
       <c r="M2">
-        <v>1.065995559769081</v>
+        <v>1.051101695465438</v>
       </c>
       <c r="N2">
-        <v>1.022242510060237</v>
+        <v>1.017583218554025</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051763122327797</v>
+        <v>1.028241510840332</v>
       </c>
       <c r="D3">
-        <v>1.056125336518334</v>
+        <v>1.043293107567666</v>
       </c>
       <c r="E3">
-        <v>1.055389113779813</v>
+        <v>1.035786373473005</v>
       </c>
       <c r="F3">
-        <v>1.06439126579098</v>
+        <v>1.045386019662834</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048710279862736</v>
+        <v>1.059187969623796</v>
       </c>
       <c r="J3">
-        <v>1.056444125064023</v>
+        <v>1.047990810963573</v>
       </c>
       <c r="K3">
-        <v>1.058679557808606</v>
+        <v>1.053400464193311</v>
       </c>
       <c r="L3">
-        <v>1.05794521529047</v>
+        <v>1.045980955211281</v>
       </c>
       <c r="M3">
-        <v>1.066924569296595</v>
+        <v>1.055469333201053</v>
       </c>
       <c r="N3">
-        <v>1.022520355897334</v>
+        <v>1.018963918208576</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052508505766718</v>
+        <v>1.031813480480022</v>
       </c>
       <c r="D4">
-        <v>1.056721115528286</v>
+        <v>1.046102970566601</v>
       </c>
       <c r="E4">
-        <v>1.056102438297333</v>
+        <v>1.039056446166259</v>
       </c>
       <c r="F4">
-        <v>1.065112818938799</v>
+        <v>1.04868288941988</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048958757296687</v>
+        <v>1.060616198170314</v>
       </c>
       <c r="J4">
-        <v>1.056961680013071</v>
+        <v>1.050436976351758</v>
       </c>
       <c r="K4">
-        <v>1.059153783852963</v>
+        <v>1.055675079451183</v>
       </c>
       <c r="L4">
-        <v>1.05853660684775</v>
+        <v>1.048705282852302</v>
       </c>
       <c r="M4">
-        <v>1.067525323178039</v>
+        <v>1.058227222250656</v>
       </c>
       <c r="N4">
-        <v>1.022699625382956</v>
+        <v>1.019833307627964</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052821819609728</v>
+        <v>1.03329500178951</v>
       </c>
       <c r="D5">
-        <v>1.056971534595196</v>
+        <v>1.047268991299627</v>
       </c>
       <c r="E5">
-        <v>1.056402354465045</v>
+        <v>1.040413919797714</v>
       </c>
       <c r="F5">
-        <v>1.065416211839209</v>
+        <v>1.050051702064968</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049062878748779</v>
+        <v>1.061205922827511</v>
       </c>
       <c r="J5">
-        <v>1.057179081519831</v>
+        <v>1.051450541027702</v>
       </c>
       <c r="K5">
-        <v>1.059352951507273</v>
+        <v>1.056617370105526</v>
       </c>
       <c r="L5">
-        <v>1.05878512074932</v>
+        <v>1.04983487381269</v>
       </c>
       <c r="M5">
-        <v>1.067777790386764</v>
+        <v>1.059370950423879</v>
       </c>
       <c r="N5">
-        <v>1.02277486699975</v>
+        <v>1.02019325585524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052874423761687</v>
+        <v>1.033542600406908</v>
       </c>
       <c r="D6">
-        <v>1.057013578347525</v>
+        <v>1.047463895159924</v>
       </c>
       <c r="E6">
-        <v>1.056452713757452</v>
+        <v>1.040640854457325</v>
       </c>
       <c r="F6">
-        <v>1.065467155909043</v>
+        <v>1.050280544738464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049080341361461</v>
+        <v>1.061304323185303</v>
       </c>
       <c r="J6">
-        <v>1.057215573735832</v>
+        <v>1.051619871774944</v>
       </c>
       <c r="K6">
-        <v>1.059386381097013</v>
+        <v>1.056774781885947</v>
       </c>
       <c r="L6">
-        <v>1.058826841066636</v>
+        <v>1.050023633866614</v>
       </c>
       <c r="M6">
-        <v>1.067820175498897</v>
+        <v>1.059562085726911</v>
       </c>
       <c r="N6">
-        <v>1.022787493172328</v>
+        <v>1.02025337346019</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052512692458161</v>
+        <v>1.031833354594661</v>
       </c>
       <c r="D7">
-        <v>1.056724461822042</v>
+        <v>1.046118610080214</v>
       </c>
       <c r="E7">
-        <v>1.056106445655142</v>
+        <v>1.039074651660583</v>
       </c>
       <c r="F7">
-        <v>1.065116872684558</v>
+        <v>1.048701246145424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048960149902104</v>
+        <v>1.060624119668623</v>
       </c>
       <c r="J7">
-        <v>1.056964585643566</v>
+        <v>1.050450577048045</v>
       </c>
       <c r="K7">
-        <v>1.059156445914241</v>
+        <v>1.055687724518683</v>
       </c>
       <c r="L7">
-        <v>1.058539927922639</v>
+        <v>1.048720437415522</v>
       </c>
       <c r="M7">
-        <v>1.067528697009</v>
+        <v>1.058242565610235</v>
       </c>
       <c r="N7">
-        <v>1.022700631249379</v>
+        <v>1.019838138790426</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051000326245285</v>
+        <v>1.024515686557009</v>
       </c>
       <c r="D8">
-        <v>1.055515606880901</v>
+        <v>1.040364449641048</v>
       </c>
       <c r="E8">
-        <v>1.054659392622799</v>
+        <v>1.032379627435343</v>
       </c>
       <c r="F8">
-        <v>1.063653185147543</v>
+        <v>1.041952124053523</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048454895858015</v>
+        <v>1.05768913851284</v>
       </c>
       <c r="J8">
-        <v>1.055913978977238</v>
+        <v>1.045435877939097</v>
       </c>
       <c r="K8">
-        <v>1.058193681373552</v>
+        <v>1.051024068410842</v>
       </c>
       <c r="L8">
-        <v>1.057339766953835</v>
+        <v>1.043138155916582</v>
       </c>
       <c r="M8">
-        <v>1.06630960141093</v>
+        <v>1.052592300625586</v>
       </c>
       <c r="N8">
-        <v>1.022336516129219</v>
+        <v>1.018054933375253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048333790515661</v>
+        <v>1.010903798072599</v>
       </c>
       <c r="D9">
-        <v>1.053383933239483</v>
+        <v>1.029685853818421</v>
       </c>
       <c r="E9">
-        <v>1.05211054505381</v>
+        <v>1.019968637141407</v>
       </c>
       <c r="F9">
-        <v>1.061075589471107</v>
+        <v>1.02944867132585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047553718599808</v>
+        <v>1.052144434225091</v>
       </c>
       <c r="J9">
-        <v>1.054056911242199</v>
+        <v>1.036077304757409</v>
       </c>
       <c r="K9">
-        <v>1.056490826053803</v>
+        <v>1.042314983474808</v>
       </c>
       <c r="L9">
-        <v>1.055221448533556</v>
+        <v>1.032745836798573</v>
       </c>
       <c r="M9">
-        <v>1.064158480193386</v>
+        <v>1.042081372765192</v>
       </c>
       <c r="N9">
-        <v>1.021690947099422</v>
+        <v>1.014718793391443</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04655496975178</v>
+        <v>1.001280065307742</v>
       </c>
       <c r="D10">
-        <v>1.051961768939902</v>
+        <v>1.022157584133326</v>
       </c>
       <c r="E10">
-        <v>1.050411963646495</v>
+        <v>1.011226308907761</v>
       </c>
       <c r="F10">
-        <v>1.059358227319612</v>
+        <v>1.020647134345288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046945611609173</v>
+        <v>1.048169368422398</v>
       </c>
       <c r="J10">
-        <v>1.052814946184514</v>
+        <v>1.029442987853916</v>
       </c>
       <c r="K10">
-        <v>1.055351290867197</v>
+        <v>1.036137978280784</v>
       </c>
       <c r="L10">
-        <v>1.053806848076331</v>
+        <v>1.025395784670566</v>
       </c>
       <c r="M10">
-        <v>1.062722394310943</v>
+        <v>1.03465334358184</v>
       </c>
       <c r="N10">
-        <v>1.02125790327911</v>
+        <v>1.012349186874501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045784432735992</v>
+        <v>0.9969659207618766</v>
       </c>
       <c r="D11">
-        <v>1.051345700130885</v>
+        <v>1.018789062897878</v>
       </c>
       <c r="E11">
-        <v>1.049676600921422</v>
+        <v>1.007315794521352</v>
       </c>
       <c r="F11">
-        <v>1.058614824741769</v>
+        <v>1.016711694932471</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046680552075683</v>
+        <v>1.04637509281493</v>
       </c>
       <c r="J11">
-        <v>1.052276221311765</v>
+        <v>1.026465467983808</v>
       </c>
       <c r="K11">
-        <v>1.054856831578102</v>
+        <v>1.03336513555142</v>
       </c>
       <c r="L11">
-        <v>1.053193732679581</v>
+        <v>1.022101051967955</v>
       </c>
       <c r="M11">
-        <v>1.06210006742525</v>
+        <v>1.031325187842172</v>
       </c>
       <c r="N11">
-        <v>1.021069756532907</v>
+        <v>1.011284835058964</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045498174711282</v>
+        <v>0.9953397893342864</v>
       </c>
       <c r="D12">
-        <v>1.051116824610393</v>
+        <v>1.017520411776311</v>
       </c>
       <c r="E12">
-        <v>1.049403473453119</v>
+        <v>1.005843159560179</v>
       </c>
       <c r="F12">
-        <v>1.058338724885755</v>
+        <v>1.015229922384885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046581834397213</v>
+        <v>1.045696988916701</v>
       </c>
       <c r="J12">
-        <v>1.05207597180703</v>
+        <v>1.025342695589439</v>
       </c>
       <c r="K12">
-        <v>1.054673011356834</v>
+        <v>1.032319473912669</v>
       </c>
       <c r="L12">
-        <v>1.052965905497459</v>
+        <v>1.020859263567998</v>
       </c>
       <c r="M12">
-        <v>1.061868832574135</v>
+        <v>1.030071044317093</v>
       </c>
       <c r="N12">
-        <v>1.020999774698017</v>
+        <v>1.010883377895783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045559580152235</v>
+        <v>0.9956896979895861</v>
       </c>
       <c r="D13">
-        <v>1.051165921014383</v>
+        <v>1.01779334930613</v>
       </c>
       <c r="E13">
-        <v>1.049462059381821</v>
+        <v>1.006159976520567</v>
       </c>
       <c r="F13">
-        <v>1.058397947767871</v>
+        <v>1.015548693688415</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046603021574222</v>
+        <v>1.045842981979178</v>
       </c>
       <c r="J13">
-        <v>1.052118932497275</v>
+        <v>1.025584311590112</v>
       </c>
       <c r="K13">
-        <v>1.054712448492017</v>
+        <v>1.032544498873613</v>
       </c>
       <c r="L13">
-        <v>1.053014779238205</v>
+        <v>1.021126464299252</v>
       </c>
       <c r="M13">
-        <v>1.061918436641538</v>
+        <v>1.030340892415414</v>
       </c>
       <c r="N13">
-        <v>1.021014790375819</v>
+        <v>1.010969774361155</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045760771512743</v>
+        <v>0.9968319966764793</v>
       </c>
       <c r="D14">
-        <v>1.051326782031919</v>
+        <v>1.018684558111395</v>
       </c>
       <c r="E14">
-        <v>1.049654023739117</v>
+        <v>1.007194484016814</v>
       </c>
       <c r="F14">
-        <v>1.058592001575378</v>
+        <v>1.016589626564953</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046672397405229</v>
+        <v>1.046319281790057</v>
       </c>
       <c r="J14">
-        <v>1.052259671550245</v>
+        <v>1.02637300811933</v>
       </c>
       <c r="K14">
-        <v>1.054841640128912</v>
+        <v>1.033279027045273</v>
       </c>
       <c r="L14">
-        <v>1.053174902231861</v>
+        <v>1.021998779027393</v>
       </c>
       <c r="M14">
-        <v>1.062080955014715</v>
+        <v>1.031221892352639</v>
       </c>
       <c r="N14">
-        <v>1.021063973767257</v>
+        <v>1.011251777290502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045884725964713</v>
+        <v>0.9975326188356896</v>
       </c>
       <c r="D15">
-        <v>1.051425888473849</v>
+        <v>1.019231316820431</v>
       </c>
       <c r="E15">
-        <v>1.049772301796358</v>
+        <v>1.007829174067718</v>
       </c>
       <c r="F15">
-        <v>1.0587115688662</v>
+        <v>1.017228291934824</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046715107308307</v>
+        <v>1.046611184097301</v>
       </c>
       <c r="J15">
-        <v>1.052346366533542</v>
+        <v>1.026856692610806</v>
       </c>
       <c r="K15">
-        <v>1.054921218660701</v>
+        <v>1.033729482996018</v>
       </c>
       <c r="L15">
-        <v>1.053273547490623</v>
+        <v>1.022533822965772</v>
       </c>
       <c r="M15">
-        <v>1.062181077988858</v>
+        <v>1.031762295715422</v>
       </c>
       <c r="N15">
-        <v>1.021094264582862</v>
+        <v>1.01142470783634</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046606101366904</v>
+        <v>1.001563152090363</v>
       </c>
       <c r="D16">
-        <v>1.052002649809602</v>
+        <v>1.022378759577468</v>
       </c>
       <c r="E16">
-        <v>1.050460769976405</v>
+        <v>1.011483093397109</v>
       </c>
       <c r="F16">
-        <v>1.059407569181928</v>
+        <v>1.020905589161258</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04696316591955</v>
+        <v>1.048286854969358</v>
       </c>
       <c r="J16">
-        <v>1.052850679567382</v>
+        <v>1.029638300929418</v>
       </c>
       <c r="K16">
-        <v>1.055384084666634</v>
+        <v>1.036319854895307</v>
       </c>
       <c r="L16">
-        <v>1.053847526128621</v>
+        <v>1.025611988668083</v>
       </c>
       <c r="M16">
-        <v>1.062763685642102</v>
+        <v>1.034871773637186</v>
       </c>
       <c r="N16">
-        <v>1.021270376542496</v>
+        <v>1.012418987888377</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047058520600395</v>
+        <v>1.004050971454829</v>
       </c>
       <c r="D17">
-        <v>1.052364366223598</v>
+        <v>1.024323213106627</v>
       </c>
       <c r="E17">
-        <v>1.050892662984781</v>
+        <v>1.013740737518081</v>
       </c>
       <c r="F17">
-        <v>1.059844211690571</v>
+        <v>1.023178097462515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047118298892474</v>
+        <v>1.049317958030795</v>
       </c>
       <c r="J17">
-        <v>1.053166767882767</v>
+        <v>1.03135436198432</v>
       </c>
       <c r="K17">
-        <v>1.055674151130205</v>
+        <v>1.037917797947026</v>
       </c>
       <c r="L17">
-        <v>1.054207410634918</v>
+        <v>1.027512056175077</v>
       </c>
       <c r="M17">
-        <v>1.063129007553906</v>
+        <v>1.036791579424295</v>
       </c>
       <c r="N17">
-        <v>1.02138067651657</v>
+        <v>1.013032179139441</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047322380658059</v>
+        <v>1.005488004817953</v>
       </c>
       <c r="D18">
-        <v>1.052575324030793</v>
+        <v>1.025446968139212</v>
       </c>
       <c r="E18">
-        <v>1.051144591900199</v>
+        <v>1.015045614383004</v>
       </c>
       <c r="F18">
-        <v>1.060098919811301</v>
+        <v>1.024491712108333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047208616983323</v>
+        <v>1.049912382473737</v>
       </c>
       <c r="J18">
-        <v>1.053351045660083</v>
+        <v>1.032345273253213</v>
       </c>
       <c r="K18">
-        <v>1.055843242373488</v>
+        <v>1.038840449294691</v>
       </c>
       <c r="L18">
-        <v>1.054417268897269</v>
+        <v>1.02860959816785</v>
       </c>
       <c r="M18">
-        <v>1.063342046218292</v>
+        <v>1.037900666745275</v>
       </c>
       <c r="N18">
-        <v>1.021444951283411</v>
+        <v>1.013386173850136</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047412345352462</v>
+        <v>1.005975655233126</v>
       </c>
       <c r="D19">
-        <v>1.052647250929459</v>
+        <v>1.025828405254187</v>
       </c>
       <c r="E19">
-        <v>1.051230495395924</v>
+        <v>1.015488551474071</v>
       </c>
       <c r="F19">
-        <v>1.060185772451149</v>
+        <v>1.024937639666804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047239384580944</v>
+        <v>1.050113897388052</v>
       </c>
       <c r="J19">
-        <v>1.053413864183199</v>
+        <v>1.032681475843224</v>
       </c>
       <c r="K19">
-        <v>1.055900881245934</v>
+        <v>1.039153482517411</v>
       </c>
       <c r="L19">
-        <v>1.054488815627896</v>
+        <v>1.028982043526808</v>
       </c>
       <c r="M19">
-        <v>1.063414678883114</v>
+        <v>1.038277054011912</v>
       </c>
       <c r="N19">
-        <v>1.021466856919838</v>
+        <v>1.013506264795494</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047009983251487</v>
+        <v>1.003785518216339</v>
       </c>
       <c r="D20">
-        <v>1.05232556009321</v>
+        <v>1.024115676199559</v>
       </c>
       <c r="E20">
-        <v>1.050846323612851</v>
+        <v>1.013499760753934</v>
       </c>
       <c r="F20">
-        <v>1.059797361820704</v>
+        <v>1.022935518811949</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047101672009642</v>
+        <v>1.049208059077183</v>
       </c>
       <c r="J20">
-        <v>1.053132864037164</v>
+        <v>1.03117129038613</v>
       </c>
       <c r="K20">
-        <v>1.055643040053512</v>
+        <v>1.037747332893086</v>
       </c>
       <c r="L20">
-        <v>1.054168804262339</v>
+        <v>1.027309315179212</v>
       </c>
       <c r="M20">
-        <v>1.063089816882575</v>
+        <v>1.036586717298075</v>
       </c>
       <c r="N20">
-        <v>1.021368848719615</v>
+        <v>1.012966771530806</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045701526963468</v>
+        <v>0.9964962849210179</v>
       </c>
       <c r="D21">
-        <v>1.051279413585387</v>
+        <v>1.018422609859242</v>
       </c>
       <c r="E21">
-        <v>1.049597494505732</v>
+        <v>1.006890413225942</v>
       </c>
       <c r="F21">
-        <v>1.058534856664501</v>
+        <v>1.016283660209642</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046651975210352</v>
+        <v>1.046179349982316</v>
       </c>
       <c r="J21">
-        <v>1.052218231365307</v>
+        <v>1.026141228952176</v>
       </c>
       <c r="K21">
-        <v>1.054803600725555</v>
+        <v>1.033063168452621</v>
       </c>
       <c r="L21">
-        <v>1.053127752461838</v>
+        <v>1.02174240999782</v>
       </c>
       <c r="M21">
-        <v>1.062033099481023</v>
+        <v>1.030962964024288</v>
       </c>
       <c r="N21">
-        <v>1.021049493129426</v>
+        <v>1.011168906131117</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044878579965734</v>
+        <v>0.9917754354192544</v>
       </c>
       <c r="D22">
-        <v>1.050621427186276</v>
+        <v>1.014741676490732</v>
       </c>
       <c r="E22">
-        <v>1.048812415365079</v>
+        <v>1.002617845535064</v>
       </c>
       <c r="F22">
-        <v>1.057741259733471</v>
+        <v>1.011985070518012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0463677124191</v>
+        <v>1.044207422372932</v>
       </c>
       <c r="J22">
-        <v>1.05164233707105</v>
+        <v>1.022880905929269</v>
       </c>
       <c r="K22">
-        <v>1.054274908778413</v>
+        <v>1.030026647397861</v>
       </c>
       <c r="L22">
-        <v>1.052472687428917</v>
+        <v>1.018137620168176</v>
       </c>
       <c r="M22">
-        <v>1.06136826525987</v>
+        <v>1.027322781968707</v>
       </c>
       <c r="N22">
-        <v>1.020848147471501</v>
+        <v>1.010002968208221</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045314865806429</v>
+        <v>0.9942916783156237</v>
       </c>
       <c r="D23">
-        <v>1.050970260515174</v>
+        <v>1.016703020745653</v>
       </c>
       <c r="E23">
-        <v>1.049228590706587</v>
+        <v>1.004894375912934</v>
       </c>
       <c r="F23">
-        <v>1.058161942816686</v>
+        <v>1.014275323634788</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046518549825703</v>
+        <v>1.045259426824553</v>
       </c>
       <c r="J23">
-        <v>1.051947708394041</v>
+        <v>1.024618901446563</v>
       </c>
       <c r="K23">
-        <v>1.05455526426417</v>
+        <v>1.031645371595118</v>
       </c>
       <c r="L23">
-        <v>1.052819998920523</v>
+        <v>1.020058914455325</v>
       </c>
       <c r="M23">
-        <v>1.061720747932307</v>
+        <v>1.02926280198034</v>
       </c>
       <c r="N23">
-        <v>1.020954937211498</v>
+        <v>1.010624551155496</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047031915277531</v>
+        <v>1.003905508471003</v>
       </c>
       <c r="D24">
-        <v>1.052343094990911</v>
+        <v>1.024209485289395</v>
       </c>
       <c r="E24">
-        <v>1.050867262339741</v>
+        <v>1.013608684671304</v>
       </c>
       <c r="F24">
-        <v>1.059818531192149</v>
+        <v>1.023045166344498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047109185502271</v>
+        <v>1.049257739269014</v>
       </c>
       <c r="J24">
-        <v>1.05314818400706</v>
+        <v>1.031254043505034</v>
       </c>
       <c r="K24">
-        <v>1.055657098117432</v>
+        <v>1.037824387697129</v>
       </c>
       <c r="L24">
-        <v>1.054186248993876</v>
+        <v>1.027400958199773</v>
       </c>
       <c r="M24">
-        <v>1.063107525606221</v>
+        <v>1.036679318666909</v>
       </c>
       <c r="N24">
-        <v>1.021374193381385</v>
+        <v>1.012996337726932</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04902334683433</v>
+        <v>1.014514338459453</v>
       </c>
       <c r="D25">
-        <v>1.053935204666029</v>
+        <v>1.032514989298937</v>
       </c>
       <c r="E25">
-        <v>1.052769364797047</v>
+        <v>1.023255348693603</v>
       </c>
       <c r="F25">
-        <v>1.061741773888885</v>
+        <v>1.03275889901977</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047787983355438</v>
+        <v>1.053624792866852</v>
       </c>
       <c r="J25">
-        <v>1.054537695434413</v>
+        <v>1.038562919414928</v>
       </c>
       <c r="K25">
-        <v>1.056931810016625</v>
+        <v>1.04462868161139</v>
       </c>
       <c r="L25">
-        <v>1.055769502070135</v>
+        <v>1.035503071315204</v>
       </c>
       <c r="M25">
-        <v>1.064714946876524</v>
+        <v>1.044869101942469</v>
       </c>
       <c r="N25">
-        <v>1.021858311240093</v>
+        <v>1.015605727011999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022585416813458</v>
+        <v>0.994364580127531</v>
       </c>
       <c r="D2">
-        <v>1.038848104108429</v>
+        <v>1.016617092266508</v>
       </c>
       <c r="E2">
-        <v>1.030616318278288</v>
+        <v>1.002578693166367</v>
       </c>
       <c r="F2">
-        <v>1.040175065902577</v>
+        <v>1.014180989238915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056909194914277</v>
+        <v>1.044949399084536</v>
       </c>
       <c r="J2">
-        <v>1.044110966236528</v>
+        <v>1.016715162116789</v>
       </c>
       <c r="K2">
-        <v>1.049791507001625</v>
+        <v>1.027849678765673</v>
       </c>
       <c r="L2">
-        <v>1.041664981391733</v>
+        <v>1.014002219222517</v>
       </c>
       <c r="M2">
-        <v>1.051101695465438</v>
+        <v>1.025446233291705</v>
       </c>
       <c r="N2">
-        <v>1.017583218554025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008564522884268</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028711279049238</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030762271508233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028241510840332</v>
+        <v>0.9999343803622917</v>
       </c>
       <c r="D3">
-        <v>1.043293107567666</v>
+        <v>1.020357624310546</v>
       </c>
       <c r="E3">
-        <v>1.035786373473005</v>
+        <v>1.007630491764157</v>
       </c>
       <c r="F3">
-        <v>1.045386019662834</v>
+        <v>1.01800182923206</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059187969623796</v>
+        <v>1.04635110015679</v>
       </c>
       <c r="J3">
-        <v>1.047990810963573</v>
+        <v>1.020426834395092</v>
       </c>
       <c r="K3">
-        <v>1.053400464193311</v>
+        <v>1.03073648673469</v>
       </c>
       <c r="L3">
-        <v>1.045980955211281</v>
+        <v>1.018166661205329</v>
       </c>
       <c r="M3">
-        <v>1.055469333201053</v>
+        <v>1.028409440313419</v>
       </c>
       <c r="N3">
-        <v>1.018963918208576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009911969915369</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03105649395309</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032800851693767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031813480480022</v>
+        <v>1.003446110199893</v>
       </c>
       <c r="D4">
-        <v>1.046102970566601</v>
+        <v>1.022717466039473</v>
       </c>
       <c r="E4">
-        <v>1.039056446166259</v>
+        <v>1.010820909660282</v>
       </c>
       <c r="F4">
-        <v>1.04868288941988</v>
+        <v>1.020423471880719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060616198170314</v>
+        <v>1.047218937369035</v>
       </c>
       <c r="J4">
-        <v>1.050436976351758</v>
+        <v>1.022762073036344</v>
       </c>
       <c r="K4">
-        <v>1.055675079451183</v>
+        <v>1.032549229854517</v>
       </c>
       <c r="L4">
-        <v>1.048705282852302</v>
+        <v>1.02079046682557</v>
       </c>
       <c r="M4">
-        <v>1.058227222250656</v>
+        <v>1.030281497462099</v>
       </c>
       <c r="N4">
-        <v>1.019833307627964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010758886732156</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032538119845499</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034083546739188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03329500178951</v>
+        <v>1.004907325326816</v>
       </c>
       <c r="D5">
-        <v>1.047268991299627</v>
+        <v>1.023701760177429</v>
       </c>
       <c r="E5">
-        <v>1.040413919797714</v>
+        <v>1.01215017139018</v>
       </c>
       <c r="F5">
-        <v>1.050051702064968</v>
+        <v>1.021432493834795</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061205922827511</v>
+        <v>1.047577793662603</v>
       </c>
       <c r="J5">
-        <v>1.051450541027702</v>
+        <v>1.023734390428622</v>
       </c>
       <c r="K5">
-        <v>1.056617370105526</v>
+        <v>1.033304654032704</v>
       </c>
       <c r="L5">
-        <v>1.04983487381269</v>
+        <v>1.021883153870856</v>
       </c>
       <c r="M5">
-        <v>1.059370950423879</v>
+        <v>1.031060657274245</v>
       </c>
       <c r="N5">
-        <v>1.02019325585524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011113154046783</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033154779235925</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034624928367692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033542600406908</v>
+        <v>1.005158801631065</v>
       </c>
       <c r="D6">
-        <v>1.047463895159924</v>
+        <v>1.023873731274202</v>
       </c>
       <c r="E6">
-        <v>1.040640854457325</v>
+        <v>1.012379638692092</v>
       </c>
       <c r="F6">
-        <v>1.050280544738464</v>
+        <v>1.021604417689603</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061304323185303</v>
+        <v>1.04764133824202</v>
       </c>
       <c r="J6">
-        <v>1.051619871774944</v>
+        <v>1.023903933605444</v>
       </c>
       <c r="K6">
-        <v>1.056774781885947</v>
+        <v>1.033438182466966</v>
       </c>
       <c r="L6">
-        <v>1.050023633866614</v>
+        <v>1.022072912904279</v>
       </c>
       <c r="M6">
-        <v>1.059562085726911</v>
+        <v>1.031194020282306</v>
       </c>
       <c r="N6">
-        <v>1.02025337346019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011177170817035</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.033260328197286</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034728152822664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031833354594661</v>
+        <v>1.00348560512713</v>
       </c>
       <c r="D7">
-        <v>1.046118610080214</v>
+        <v>1.022750913334985</v>
       </c>
       <c r="E7">
-        <v>1.039074651660583</v>
+        <v>1.01085852990264</v>
       </c>
       <c r="F7">
-        <v>1.048701246145424</v>
+        <v>1.020445596198937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060624119668623</v>
+        <v>1.047234060427986</v>
       </c>
       <c r="J7">
-        <v>1.050450577048045</v>
+        <v>1.022794508872709</v>
       </c>
       <c r="K7">
-        <v>1.055687724518683</v>
+        <v>1.032579383349831</v>
       </c>
       <c r="L7">
-        <v>1.048720437415522</v>
+        <v>1.020824686942082</v>
       </c>
       <c r="M7">
-        <v>1.058242565610235</v>
+        <v>1.030300447015852</v>
       </c>
       <c r="N7">
-        <v>1.019838138790426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01077688454</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032553117314698</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03412513390342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024515686557009</v>
+        <v>0.9962920536719194</v>
       </c>
       <c r="D8">
-        <v>1.040364449641048</v>
+        <v>1.01791960848175</v>
       </c>
       <c r="E8">
-        <v>1.032379627435343</v>
+        <v>1.004327964220746</v>
       </c>
       <c r="F8">
-        <v>1.041952124053523</v>
+        <v>1.015494075061184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05768913851284</v>
+        <v>1.04544433280766</v>
       </c>
       <c r="J8">
-        <v>1.045435877939097</v>
+        <v>1.0180083650641</v>
       </c>
       <c r="K8">
-        <v>1.051024068410842</v>
+        <v>1.028862197182784</v>
       </c>
       <c r="L8">
-        <v>1.043138155916582</v>
+        <v>1.015449627903587</v>
       </c>
       <c r="M8">
-        <v>1.052592300625586</v>
+        <v>1.02646818095141</v>
       </c>
       <c r="N8">
-        <v>1.018054933375253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009042409812746</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029520095146749</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031501357937558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010903798072599</v>
+        <v>0.9828303124852276</v>
       </c>
       <c r="D9">
-        <v>1.029685853818421</v>
+        <v>1.008883630057291</v>
       </c>
       <c r="E9">
-        <v>1.019968637141407</v>
+        <v>0.9921491126861725</v>
       </c>
       <c r="F9">
-        <v>1.02944867132585</v>
+        <v>1.0063425854416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052144434225091</v>
+        <v>1.04196169206065</v>
       </c>
       <c r="J9">
-        <v>1.036077304757409</v>
+        <v>1.00900429382196</v>
       </c>
       <c r="K9">
-        <v>1.042314983474808</v>
+        <v>1.021834202262667</v>
       </c>
       <c r="L9">
-        <v>1.032745836798573</v>
+        <v>1.005370862392883</v>
       </c>
       <c r="M9">
-        <v>1.042081372765192</v>
+        <v>1.019333590003166</v>
       </c>
       <c r="N9">
-        <v>1.014718793391443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005762305978436</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023873433816965</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026528748327309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001280065307742</v>
+        <v>0.9735064535231582</v>
       </c>
       <c r="D10">
-        <v>1.022157584133326</v>
+        <v>1.002654596230773</v>
       </c>
       <c r="E10">
-        <v>1.011226308907761</v>
+        <v>0.9837673198305369</v>
       </c>
       <c r="F10">
-        <v>1.020647134345288</v>
+        <v>1.000313570336568</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048169368422398</v>
+        <v>1.039494075401152</v>
       </c>
       <c r="J10">
-        <v>1.029442987853916</v>
+        <v>1.002812129094003</v>
       </c>
       <c r="K10">
-        <v>1.036137978280784</v>
+        <v>1.016976085967538</v>
       </c>
       <c r="L10">
-        <v>1.025395784670566</v>
+        <v>0.9984359787624105</v>
       </c>
       <c r="M10">
-        <v>1.03465334358184</v>
+        <v>1.014677165481248</v>
       </c>
       <c r="N10">
-        <v>1.012349186874501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00353575633904</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.020240690779617</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023110706608833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969659207618766</v>
+        <v>0.9711203048761512</v>
       </c>
       <c r="D11">
-        <v>1.018789062897878</v>
+        <v>1.001156720039158</v>
       </c>
       <c r="E11">
-        <v>1.007315794521352</v>
+        <v>0.9817894863520484</v>
       </c>
       <c r="F11">
-        <v>1.016711694932471</v>
+        <v>1.000644703384377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04637509281493</v>
+        <v>1.039021747175443</v>
       </c>
       <c r="J11">
-        <v>1.026465467983808</v>
+        <v>1.001745899019663</v>
       </c>
       <c r="K11">
-        <v>1.03336513555142</v>
+        <v>1.016056855233502</v>
       </c>
       <c r="L11">
-        <v>1.022101051967955</v>
+        <v>0.9970631961702333</v>
       </c>
       <c r="M11">
-        <v>1.031325187842172</v>
+        <v>1.01555447177683</v>
       </c>
       <c r="N11">
-        <v>1.011284835058964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00341635291109</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021379986570041</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02249414924857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9953397893342864</v>
+        <v>0.9708415108125811</v>
       </c>
       <c r="D12">
-        <v>1.017520411776311</v>
+        <v>1.001035202241005</v>
       </c>
       <c r="E12">
-        <v>1.005843159560179</v>
+        <v>0.9816567491569409</v>
       </c>
       <c r="F12">
-        <v>1.015229922384885</v>
+        <v>1.001777598933272</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045696988916701</v>
+        <v>1.039064299243601</v>
       </c>
       <c r="J12">
-        <v>1.025342695589439</v>
+        <v>1.001933311209428</v>
       </c>
       <c r="K12">
-        <v>1.032319473912669</v>
+        <v>1.01614259624742</v>
       </c>
       <c r="L12">
-        <v>1.020859263567998</v>
+        <v>0.9971440216697646</v>
       </c>
       <c r="M12">
-        <v>1.030071044317093</v>
+        <v>1.016870822010094</v>
       </c>
       <c r="N12">
-        <v>1.010883377895783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003687040643531</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.022753113918385</v>
+      </c>
+      <c r="Q12">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R12">
+        <v>1.022554772857377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9956896979895861</v>
+        <v>0.9721835002378668</v>
       </c>
       <c r="D13">
-        <v>1.01779334930613</v>
+        <v>1.001983351392064</v>
       </c>
       <c r="E13">
-        <v>1.006159976520567</v>
+        <v>0.9829502661294736</v>
       </c>
       <c r="F13">
-        <v>1.015548693688415</v>
+        <v>1.003629062257549</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045842981979178</v>
+        <v>1.039521105651401</v>
       </c>
       <c r="J13">
-        <v>1.025584311590112</v>
+        <v>1.00311648792924</v>
       </c>
       <c r="K13">
-        <v>1.032544498873613</v>
+        <v>1.017028745349414</v>
       </c>
       <c r="L13">
-        <v>1.021126464299252</v>
+        <v>0.9983664079809941</v>
       </c>
       <c r="M13">
-        <v>1.030340892415414</v>
+        <v>1.018643262426312</v>
       </c>
       <c r="N13">
-        <v>1.010969774361155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004290125796708</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.02443506159351</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023178795476632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9968319966764793</v>
+        <v>0.9738318432171011</v>
       </c>
       <c r="D14">
-        <v>1.018684558111395</v>
+        <v>1.003115526992689</v>
       </c>
       <c r="E14">
-        <v>1.007194484016814</v>
+        <v>0.9844774656212858</v>
       </c>
       <c r="F14">
-        <v>1.016589626564953</v>
+        <v>1.005215381777945</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046319281790057</v>
+        <v>1.040020174368537</v>
       </c>
       <c r="J14">
-        <v>1.02637300811933</v>
+        <v>1.004372551438688</v>
       </c>
       <c r="K14">
-        <v>1.033279027045273</v>
+        <v>1.01799581931624</v>
       </c>
       <c r="L14">
-        <v>1.021998779027393</v>
+        <v>0.9997155358594192</v>
       </c>
       <c r="M14">
-        <v>1.031221892352639</v>
+        <v>1.020056450039946</v>
       </c>
       <c r="N14">
-        <v>1.011251777290502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004853733637143</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025727427073624</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.023864016672228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9975326188356896</v>
+        <v>0.9746083052030212</v>
       </c>
       <c r="D15">
-        <v>1.019231316820431</v>
+        <v>1.003641863470474</v>
       </c>
       <c r="E15">
-        <v>1.007829174067718</v>
+        <v>0.9851829797780893</v>
       </c>
       <c r="F15">
-        <v>1.017228291934824</v>
+        <v>1.005812294277472</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046611184097301</v>
+        <v>1.04024097427413</v>
       </c>
       <c r="J15">
-        <v>1.026856692610806</v>
+        <v>1.004919189695221</v>
       </c>
       <c r="K15">
-        <v>1.033729482996018</v>
+        <v>1.018423877180434</v>
       </c>
       <c r="L15">
-        <v>1.022533822965772</v>
+        <v>1.00031632368444</v>
       </c>
       <c r="M15">
-        <v>1.031762295715422</v>
+        <v>1.020554102261635</v>
       </c>
       <c r="N15">
-        <v>1.01142470783634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005074775516535</v>
+      </c>
+      <c r="O15">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P15">
+        <v>1.026158673645631</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024172636958161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001563152090363</v>
+        <v>0.978268810413896</v>
       </c>
       <c r="D16">
-        <v>1.022378759577468</v>
+        <v>1.006076635629052</v>
       </c>
       <c r="E16">
-        <v>1.011483093397109</v>
+        <v>0.988448384936734</v>
       </c>
       <c r="F16">
-        <v>1.020905589161258</v>
+        <v>1.008031972539128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048286854969358</v>
+        <v>1.041205394857429</v>
       </c>
       <c r="J16">
-        <v>1.029638300929418</v>
+        <v>1.00729232379142</v>
       </c>
       <c r="K16">
-        <v>1.036319854895307</v>
+        <v>1.020300676566962</v>
       </c>
       <c r="L16">
-        <v>1.025611988668083</v>
+        <v>1.002992085884936</v>
       </c>
       <c r="M16">
-        <v>1.034871773637186</v>
+        <v>1.022221449690908</v>
       </c>
       <c r="N16">
-        <v>1.012418987888377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00589117973429</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.02743743114634</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025502841892042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.004050971454829</v>
+        <v>0.9802289125001056</v>
       </c>
       <c r="D17">
-        <v>1.024323213106627</v>
+        <v>1.007363123306882</v>
       </c>
       <c r="E17">
-        <v>1.013740737518081</v>
+        <v>0.9901701851968412</v>
       </c>
       <c r="F17">
-        <v>1.023178097462515</v>
+        <v>1.008914210567637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049317958030795</v>
+        <v>1.041685874676473</v>
       </c>
       <c r="J17">
-        <v>1.03135436198432</v>
+        <v>1.008468654741488</v>
       </c>
       <c r="K17">
-        <v>1.037917797947026</v>
+        <v>1.02124327035014</v>
       </c>
       <c r="L17">
-        <v>1.027512056175077</v>
+        <v>1.004352790176605</v>
       </c>
       <c r="M17">
-        <v>1.036791579424295</v>
+        <v>1.022767726039772</v>
       </c>
       <c r="N17">
-        <v>1.013032179139441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006228235991677</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.02773885370478</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026171926300123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005488004817953</v>
+        <v>0.98083584604965</v>
       </c>
       <c r="D18">
-        <v>1.025446968139212</v>
+        <v>1.007723328749337</v>
       </c>
       <c r="E18">
-        <v>1.015045614383004</v>
+        <v>0.9906457612353321</v>
       </c>
       <c r="F18">
-        <v>1.024491712108333</v>
+        <v>1.008541928737282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049912382473737</v>
+        <v>1.041767675463682</v>
       </c>
       <c r="J18">
-        <v>1.032345273253213</v>
+        <v>1.008642927290379</v>
       </c>
       <c r="K18">
-        <v>1.038840449294691</v>
+        <v>1.021410066004412</v>
       </c>
       <c r="L18">
-        <v>1.02860959816785</v>
+        <v>1.004627938483834</v>
       </c>
       <c r="M18">
-        <v>1.037900666745275</v>
+        <v>1.022214828513884</v>
       </c>
       <c r="N18">
-        <v>1.013386173850136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006143682871128</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027061216289765</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026278064079427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005975655233126</v>
+        <v>0.9801917015725788</v>
       </c>
       <c r="D19">
-        <v>1.025828405254187</v>
+        <v>1.007236969505497</v>
       </c>
       <c r="E19">
-        <v>1.015488551474071</v>
+        <v>0.9899661787311774</v>
       </c>
       <c r="F19">
-        <v>1.024937639666804</v>
+        <v>1.006924251472047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050113897388052</v>
+        <v>1.041487086272595</v>
       </c>
       <c r="J19">
-        <v>1.032681475843224</v>
+        <v>1.007885367524229</v>
       </c>
       <c r="K19">
-        <v>1.039153482517411</v>
+        <v>1.020868062229156</v>
       </c>
       <c r="L19">
-        <v>1.028982043526808</v>
+        <v>1.003894899213999</v>
       </c>
       <c r="M19">
-        <v>1.038277054011912</v>
+        <v>1.020560616191506</v>
       </c>
       <c r="N19">
-        <v>1.013506264795494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005685667490181</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.025422889724581</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025901325625151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003785518216339</v>
+        <v>0.9759999596187225</v>
       </c>
       <c r="D20">
-        <v>1.024115676199559</v>
+        <v>1.004336003090421</v>
       </c>
       <c r="E20">
-        <v>1.013499760753934</v>
+        <v>0.9860119738383157</v>
       </c>
       <c r="F20">
-        <v>1.022935518811949</v>
+        <v>1.001919074708133</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049208059077183</v>
+        <v>1.04017290641634</v>
       </c>
       <c r="J20">
-        <v>1.03117129038613</v>
+        <v>1.004488453836304</v>
       </c>
       <c r="K20">
-        <v>1.037747332893086</v>
+        <v>1.018303035207035</v>
       </c>
       <c r="L20">
-        <v>1.027309315179212</v>
+        <v>1.000305327560074</v>
       </c>
       <c r="M20">
-        <v>1.036586717298075</v>
+        <v>1.015928263228294</v>
       </c>
       <c r="N20">
-        <v>1.012966771530806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004159530690878</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021220039931819</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024091704544949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9964962849210179</v>
+        <v>0.9685758540693582</v>
       </c>
       <c r="D21">
-        <v>1.018422609859242</v>
+        <v>0.999364105953215</v>
       </c>
       <c r="E21">
-        <v>1.006890413225942</v>
+        <v>0.9793198629218469</v>
       </c>
       <c r="F21">
-        <v>1.016283660209642</v>
+        <v>0.9967806888450144</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046179349982316</v>
+        <v>1.038146259873018</v>
       </c>
       <c r="J21">
-        <v>1.026141228952176</v>
+        <v>0.9994488027871459</v>
       </c>
       <c r="K21">
-        <v>1.033063168452621</v>
+        <v>1.014357535565208</v>
       </c>
       <c r="L21">
-        <v>1.02174240999782</v>
+        <v>0.9947039121713109</v>
       </c>
       <c r="M21">
-        <v>1.030962964024288</v>
+        <v>1.011823309823548</v>
       </c>
       <c r="N21">
-        <v>1.011168906131117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.002296064230393</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017929382977482</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02130531383623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9917754354192544</v>
+        <v>0.9638468503694665</v>
       </c>
       <c r="D22">
-        <v>1.014741676490732</v>
+        <v>0.9962017675311196</v>
       </c>
       <c r="E22">
-        <v>1.002617845535064</v>
+        <v>0.9750734411050904</v>
       </c>
       <c r="F22">
-        <v>1.011985070518012</v>
+        <v>0.9936497586445115</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044207422372932</v>
+        <v>1.036845432832225</v>
       </c>
       <c r="J22">
-        <v>1.022880905929269</v>
+        <v>0.9962601404250737</v>
       </c>
       <c r="K22">
-        <v>1.030026647397861</v>
+        <v>1.011848845540468</v>
       </c>
       <c r="L22">
-        <v>1.018137620168176</v>
+        <v>0.9911554161897309</v>
       </c>
       <c r="M22">
-        <v>1.027322781968707</v>
+        <v>1.009348073506952</v>
       </c>
       <c r="N22">
-        <v>1.010002968208221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.001122809227434</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.015970332529685</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019517752305209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9942916783156237</v>
+        <v>0.9663473339875809</v>
       </c>
       <c r="D23">
-        <v>1.016703020745653</v>
+        <v>0.9978673177265349</v>
       </c>
       <c r="E23">
-        <v>1.004894375912934</v>
+        <v>0.9773160667655094</v>
       </c>
       <c r="F23">
-        <v>1.014275323634788</v>
+        <v>0.9953081269145779</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045259426824553</v>
+        <v>1.037530316283608</v>
       </c>
       <c r="J23">
-        <v>1.024618901446563</v>
+        <v>0.9979405929734653</v>
       </c>
       <c r="K23">
-        <v>1.031645371595118</v>
+        <v>1.013167348040777</v>
       </c>
       <c r="L23">
-        <v>1.020058914455325</v>
+        <v>0.9930271126077709</v>
       </c>
       <c r="M23">
-        <v>1.02926280198034</v>
+        <v>1.010658125807602</v>
       </c>
       <c r="N23">
-        <v>1.010624551155496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.001733795154192</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.017007187200918</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.020440198549639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003905508471003</v>
+        <v>0.97591678774603</v>
       </c>
       <c r="D24">
-        <v>1.024209485289395</v>
+        <v>1.004262931148015</v>
       </c>
       <c r="E24">
-        <v>1.013608684671304</v>
+        <v>0.9859192384093196</v>
       </c>
       <c r="F24">
-        <v>1.023045166344498</v>
+        <v>1.001686549832048</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049257739269014</v>
+        <v>1.040127614064659</v>
       </c>
       <c r="J24">
-        <v>1.031254043505034</v>
+        <v>1.004374490863175</v>
       </c>
       <c r="K24">
-        <v>1.037824387697129</v>
+        <v>1.018215596240456</v>
       </c>
       <c r="L24">
-        <v>1.027400958199773</v>
+        <v>1.000198224096426</v>
       </c>
       <c r="M24">
-        <v>1.036679318666909</v>
+        <v>1.01568411235881</v>
       </c>
       <c r="N24">
-        <v>1.012996337726932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004084081512883</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020985042077456</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024002033916398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014514338459453</v>
+        <v>0.9864402060538835</v>
       </c>
       <c r="D25">
-        <v>1.032514989298937</v>
+        <v>1.011314666269985</v>
       </c>
       <c r="E25">
-        <v>1.023255348693603</v>
+        <v>0.995412268411365</v>
       </c>
       <c r="F25">
-        <v>1.03275889901977</v>
+        <v>1.008775419981997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053624792866852</v>
+        <v>1.042917649651874</v>
       </c>
       <c r="J25">
-        <v>1.038562919414928</v>
+        <v>1.011432690076022</v>
       </c>
       <c r="K25">
-        <v>1.04462868161139</v>
+        <v>1.023739839559894</v>
       </c>
       <c r="L25">
-        <v>1.035503071315204</v>
+        <v>1.00808222294351</v>
       </c>
       <c r="M25">
-        <v>1.044869101942469</v>
+        <v>1.021239019287368</v>
       </c>
       <c r="N25">
-        <v>1.015605727011999</v>
+        <v>1.006658859264137</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025381487534851</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.027905153725837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.994364580127531</v>
+        <v>0.9954348989844903</v>
       </c>
       <c r="D2">
-        <v>1.016617092266508</v>
+        <v>1.017218060966024</v>
       </c>
       <c r="E2">
-        <v>1.002578693166367</v>
+        <v>1.003641603628494</v>
       </c>
       <c r="F2">
-        <v>1.014180989238915</v>
+        <v>1.014644655513102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044949399084536</v>
+        <v>1.045254434753998</v>
       </c>
       <c r="J2">
-        <v>1.016715162116789</v>
+        <v>1.01775301408453</v>
       </c>
       <c r="K2">
-        <v>1.027849678765673</v>
+        <v>1.028442621293785</v>
       </c>
       <c r="L2">
-        <v>1.014002219222517</v>
+        <v>1.015050437200405</v>
       </c>
       <c r="M2">
-        <v>1.025446233291705</v>
+        <v>1.025903668631959</v>
       </c>
       <c r="N2">
-        <v>1.008564522884268</v>
+        <v>1.011360790407502</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028711279049238</v>
+        <v>1.029073314406744</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030762271508233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031190405296445</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01952342501197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9999343803622917</v>
+        <v>1.000555587019657</v>
       </c>
       <c r="D3">
-        <v>1.020357624310546</v>
+        <v>1.020513528701043</v>
       </c>
       <c r="E3">
-        <v>1.007630491764157</v>
+        <v>1.008248144605221</v>
       </c>
       <c r="F3">
-        <v>1.01800182923206</v>
+        <v>1.018270575930987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04635110015679</v>
+        <v>1.046430319988359</v>
       </c>
       <c r="J3">
-        <v>1.020426834395092</v>
+        <v>1.021031117622887</v>
       </c>
       <c r="K3">
-        <v>1.03073648673469</v>
+        <v>1.030890494383811</v>
       </c>
       <c r="L3">
-        <v>1.018166661205329</v>
+        <v>1.018776565566975</v>
       </c>
       <c r="M3">
-        <v>1.028409440313419</v>
+        <v>1.028674899037246</v>
       </c>
       <c r="N3">
-        <v>1.009911969915369</v>
+        <v>1.012290048146823</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03105649395309</v>
+        <v>1.031266589503459</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032800851693767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032918325370124</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020087220347323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003446110199893</v>
+        <v>1.003789512254909</v>
       </c>
       <c r="D4">
-        <v>1.022717466039473</v>
+        <v>1.022596159766987</v>
       </c>
       <c r="E4">
-        <v>1.010820909660282</v>
+        <v>1.011162597039527</v>
       </c>
       <c r="F4">
-        <v>1.020423471880719</v>
+        <v>1.020571906467565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047218937369035</v>
+        <v>1.047157253696412</v>
       </c>
       <c r="J4">
-        <v>1.022762073036344</v>
+        <v>1.023096776161679</v>
       </c>
       <c r="K4">
-        <v>1.032549229854517</v>
+        <v>1.032429308662144</v>
       </c>
       <c r="L4">
-        <v>1.02079046682557</v>
+        <v>1.021128140603697</v>
       </c>
       <c r="M4">
-        <v>1.030281497462099</v>
+        <v>1.03042822835203</v>
       </c>
       <c r="N4">
-        <v>1.010758886732156</v>
+        <v>1.012875420247276</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032538119845499</v>
+        <v>1.032654248798826</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034083546739188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034007400024822</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020438872504104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004907325326816</v>
+        <v>1.00513577535539</v>
       </c>
       <c r="D5">
-        <v>1.023701760177429</v>
+        <v>1.023465572380394</v>
       </c>
       <c r="E5">
-        <v>1.01215017139018</v>
+        <v>1.01237754808528</v>
       </c>
       <c r="F5">
-        <v>1.021432493834795</v>
+        <v>1.021531205133811</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047577793662603</v>
+        <v>1.047457656834791</v>
       </c>
       <c r="J5">
-        <v>1.023734390428622</v>
+        <v>1.023957232476606</v>
       </c>
       <c r="K5">
-        <v>1.033304654032704</v>
+        <v>1.033071089895998</v>
       </c>
       <c r="L5">
-        <v>1.021883153870856</v>
+        <v>1.022107934624325</v>
       </c>
       <c r="M5">
-        <v>1.031060657274245</v>
+        <v>1.031158266492023</v>
       </c>
       <c r="N5">
-        <v>1.011113154046783</v>
+        <v>1.01312038150169</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033154779235925</v>
+        <v>1.033232031180923</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034624928367692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034469131927359</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020585753149163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005158801631065</v>
+        <v>1.0053668540802</v>
       </c>
       <c r="D6">
-        <v>1.023873731274202</v>
+        <v>1.023617443271012</v>
       </c>
       <c r="E6">
-        <v>1.012379638692092</v>
+        <v>1.012586723844736</v>
       </c>
       <c r="F6">
-        <v>1.021604417689603</v>
+        <v>1.021694309938089</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04764133824202</v>
+        <v>1.047510970773723</v>
       </c>
       <c r="J6">
-        <v>1.023903933605444</v>
+        <v>1.024106906019569</v>
       </c>
       <c r="K6">
-        <v>1.033438182466966</v>
+        <v>1.033184728103649</v>
       </c>
       <c r="L6">
-        <v>1.022072912904279</v>
+        <v>1.022277645201246</v>
       </c>
       <c r="M6">
-        <v>1.031194020282306</v>
+        <v>1.031282913617344</v>
       </c>
       <c r="N6">
-        <v>1.011177170817035</v>
+        <v>1.013164416862865</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.033260328197286</v>
+        <v>1.033330682024379</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034728152822664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034559159005605</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020612806906172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00348560512713</v>
+        <v>1.003837475338568</v>
       </c>
       <c r="D7">
-        <v>1.022750913334985</v>
+        <v>1.022635103576735</v>
       </c>
       <c r="E7">
-        <v>1.01085852990264</v>
+        <v>1.011208644782051</v>
       </c>
       <c r="F7">
-        <v>1.020445596198937</v>
+        <v>1.020597690374879</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047234060427986</v>
+        <v>1.047175171429223</v>
       </c>
       <c r="J7">
-        <v>1.022794508872709</v>
+        <v>1.023137469951383</v>
       </c>
       <c r="K7">
-        <v>1.032579383349831</v>
+        <v>1.032464895355052</v>
       </c>
       <c r="L7">
-        <v>1.020824686942082</v>
+        <v>1.021170691026912</v>
       </c>
       <c r="M7">
-        <v>1.030300447015852</v>
+        <v>1.030450796175683</v>
       </c>
       <c r="N7">
-        <v>1.01077688454</v>
+        <v>1.012918689424326</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032553117314698</v>
+        <v>1.032672109915119</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03412513390342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034054823316095</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020451390293452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9962920536719194</v>
+        <v>0.9972451638197301</v>
       </c>
       <c r="D8">
-        <v>1.01791960848175</v>
+        <v>1.018394600183434</v>
       </c>
       <c r="E8">
-        <v>1.004327964220746</v>
+        <v>1.005274875524234</v>
       </c>
       <c r="F8">
-        <v>1.015494075061184</v>
+        <v>1.01590677732152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04544433280766</v>
+        <v>1.045685515379607</v>
       </c>
       <c r="J8">
-        <v>1.0180083650641</v>
+        <v>1.018933580937736</v>
       </c>
       <c r="K8">
-        <v>1.028862197182784</v>
+        <v>1.029331038877931</v>
       </c>
       <c r="L8">
-        <v>1.015449627903587</v>
+        <v>1.016383866221035</v>
       </c>
       <c r="M8">
-        <v>1.02646818095141</v>
+        <v>1.026875507286509</v>
       </c>
       <c r="N8">
-        <v>1.009042409812746</v>
+        <v>1.011785739233211</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029520095146749</v>
+        <v>1.029842471566265</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031501357937558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031843991536331</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019736968640499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828303124852276</v>
+        <v>0.984913904060214</v>
       </c>
       <c r="D9">
-        <v>1.008883630057291</v>
+        <v>1.010463193315035</v>
       </c>
       <c r="E9">
-        <v>0.9921491126861725</v>
+        <v>0.9942127293324263</v>
       </c>
       <c r="F9">
-        <v>1.0063425854416</v>
+        <v>1.007247645749786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04196169206065</v>
+        <v>1.04276172234488</v>
       </c>
       <c r="J9">
-        <v>1.00900429382196</v>
+        <v>1.011010874313373</v>
       </c>
       <c r="K9">
-        <v>1.021834202262667</v>
+        <v>1.023388763195989</v>
       </c>
       <c r="L9">
-        <v>1.005370862392883</v>
+        <v>1.00740040403384</v>
       </c>
       <c r="M9">
-        <v>1.019333590003166</v>
+        <v>1.020224219283261</v>
       </c>
       <c r="N9">
-        <v>1.005762305978436</v>
+        <v>1.009546014432829</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023873433816965</v>
+        <v>1.02457832357677</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026528748327309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027638844590298</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018350331480833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9735064535231582</v>
+        <v>0.976458531877893</v>
       </c>
       <c r="D10">
-        <v>1.002654596230773</v>
+        <v>1.005057065513705</v>
       </c>
       <c r="E10">
-        <v>0.9837673198305369</v>
+        <v>0.986684098331773</v>
       </c>
       <c r="F10">
-        <v>1.000313570336568</v>
+        <v>1.001597254376306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039494075401152</v>
+        <v>1.040708893253945</v>
       </c>
       <c r="J10">
-        <v>1.002812129094003</v>
+        <v>1.005638338206058</v>
       </c>
       <c r="K10">
-        <v>1.016976085967538</v>
+        <v>1.019335609464699</v>
       </c>
       <c r="L10">
-        <v>0.9984359787624105</v>
+        <v>1.001298010879723</v>
       </c>
       <c r="M10">
-        <v>1.014677165481248</v>
+        <v>1.015937729663592</v>
       </c>
       <c r="N10">
-        <v>1.00353575633904</v>
+        <v>1.008167973321218</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020240690779617</v>
+        <v>1.021238306218815</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023110706608833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024791678380905</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017410877087273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9711203048761512</v>
+        <v>0.974274166963207</v>
       </c>
       <c r="D11">
-        <v>1.001156720039158</v>
+        <v>1.003754351996596</v>
       </c>
       <c r="E11">
-        <v>0.9817894863520484</v>
+        <v>0.9849024234639846</v>
       </c>
       <c r="F11">
-        <v>1.000644703384377</v>
+        <v>1.00200539741797</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039021747175443</v>
+        <v>1.040334388285512</v>
       </c>
       <c r="J11">
-        <v>1.001745899019663</v>
+        <v>1.004757763818665</v>
       </c>
       <c r="K11">
-        <v>1.016056855233502</v>
+        <v>1.018605812352268</v>
       </c>
       <c r="L11">
-        <v>0.9970631961702333</v>
+        <v>1.000114787096092</v>
       </c>
       <c r="M11">
-        <v>1.01555447177683</v>
+        <v>1.016889593715903</v>
       </c>
       <c r="N11">
-        <v>1.00341635291109</v>
+        <v>1.008325107857478</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021379986570041</v>
+        <v>1.022436053395827</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02249414924857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024312240513973</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017352541430395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9708415108125811</v>
+        <v>0.9739743942066061</v>
       </c>
       <c r="D12">
-        <v>1.001035202241005</v>
+        <v>1.003622803442696</v>
       </c>
       <c r="E12">
-        <v>0.9816567491569409</v>
+        <v>0.9847478674092107</v>
       </c>
       <c r="F12">
-        <v>1.001777598933272</v>
+        <v>1.003121468388406</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039064299243601</v>
+        <v>1.040371579758557</v>
       </c>
       <c r="J12">
-        <v>1.001933311209428</v>
+        <v>1.004922557473124</v>
       </c>
       <c r="K12">
-        <v>1.01614259624742</v>
+        <v>1.018680923837117</v>
       </c>
       <c r="L12">
-        <v>0.9971440216697646</v>
+        <v>1.000173226320292</v>
       </c>
       <c r="M12">
-        <v>1.016870822010094</v>
+        <v>1.0181891093397</v>
       </c>
       <c r="N12">
-        <v>1.003687040643531</v>
+        <v>1.008598152747621</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.022753113918385</v>
+        <v>1.023795499903812</v>
       </c>
       <c r="Q12">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022554772857377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024365347065108</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017445278575071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9721835002378668</v>
+        <v>0.9750999946174849</v>
       </c>
       <c r="D13">
-        <v>1.001983351392064</v>
+        <v>1.004386635998441</v>
       </c>
       <c r="E13">
-        <v>0.9829502661294736</v>
+        <v>0.9858283010510791</v>
       </c>
       <c r="F13">
-        <v>1.003629062257549</v>
+        <v>1.004874394785044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039521105651401</v>
+        <v>1.040735372656047</v>
       </c>
       <c r="J13">
-        <v>1.00311648792924</v>
+        <v>1.005900243001421</v>
       </c>
       <c r="K13">
-        <v>1.017028745349414</v>
+        <v>1.019386521558654</v>
       </c>
       <c r="L13">
-        <v>0.9983664079809941</v>
+        <v>1.001187174024544</v>
       </c>
       <c r="M13">
-        <v>1.018643262426312</v>
+        <v>1.019865078903068</v>
       </c>
       <c r="N13">
-        <v>1.004290125796708</v>
+        <v>1.008947720321297</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02443506159351</v>
+        <v>1.025400918264082</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023178795476632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024861457659784</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017666140162362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9738318432171011</v>
+        <v>0.9765153185663212</v>
       </c>
       <c r="D14">
-        <v>1.003115526992689</v>
+        <v>1.005316885828965</v>
       </c>
       <c r="E14">
-        <v>0.9844774656212858</v>
+        <v>0.9871264222384996</v>
       </c>
       <c r="F14">
-        <v>1.005215381777945</v>
+        <v>1.006358269874613</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040020174368537</v>
+        <v>1.041132640192998</v>
       </c>
       <c r="J14">
-        <v>1.004372551438688</v>
+        <v>1.006935912407599</v>
       </c>
       <c r="K14">
-        <v>1.01799581931624</v>
+        <v>1.020156063471355</v>
       </c>
       <c r="L14">
-        <v>0.9997155358594192</v>
+        <v>1.002312562319276</v>
       </c>
       <c r="M14">
-        <v>1.020056450039946</v>
+        <v>1.021178079376309</v>
       </c>
       <c r="N14">
-        <v>1.004853733637143</v>
+        <v>1.009224864150747</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025727427073624</v>
+        <v>1.026613963568153</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.023864016672228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025407135904304</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017876794854246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9746083052030212</v>
+        <v>0.9771915008459817</v>
       </c>
       <c r="D15">
-        <v>1.003641863470474</v>
+        <v>1.005755097519371</v>
       </c>
       <c r="E15">
-        <v>0.9851829797780893</v>
+        <v>0.9877334240166938</v>
       </c>
       <c r="F15">
-        <v>1.005812294277472</v>
+        <v>1.006911899929404</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04024097427413</v>
+        <v>1.041309029876012</v>
       </c>
       <c r="J15">
-        <v>1.004919189695221</v>
+        <v>1.007387873659398</v>
       </c>
       <c r="K15">
-        <v>1.018423877180434</v>
+        <v>1.020497962131939</v>
       </c>
       <c r="L15">
-        <v>1.00031632368444</v>
+        <v>1.002817200314133</v>
       </c>
       <c r="M15">
-        <v>1.020554102261635</v>
+        <v>1.021633424679884</v>
       </c>
       <c r="N15">
-        <v>1.005074775516535</v>
+        <v>1.0093209003989</v>
       </c>
       <c r="O15">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.026158673645631</v>
+        <v>1.027011748154852</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024172636958161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025655395659608</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017962432031872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.978268810413896</v>
+        <v>0.9804413679273506</v>
       </c>
       <c r="D16">
-        <v>1.006076635629052</v>
+        <v>1.007818008688714</v>
       </c>
       <c r="E16">
-        <v>0.988448384936734</v>
+        <v>0.9905955857011344</v>
       </c>
       <c r="F16">
-        <v>1.008031972539128</v>
+        <v>1.008957163285941</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041205394857429</v>
+        <v>1.042086081264087</v>
       </c>
       <c r="J16">
-        <v>1.00729232379142</v>
+        <v>1.009373717351512</v>
       </c>
       <c r="K16">
-        <v>1.020300676566962</v>
+        <v>1.022011259528865</v>
       </c>
       <c r="L16">
-        <v>1.002992085884936</v>
+        <v>1.005099557548055</v>
       </c>
       <c r="M16">
-        <v>1.022221449690908</v>
+        <v>1.023130346694254</v>
       </c>
       <c r="N16">
-        <v>1.00589117973429</v>
+        <v>1.00963583812547</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.02743743114634</v>
+        <v>1.028155826043677</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025502841892042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026728866799075</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018298909091103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9802289125001056</v>
+        <v>0.9822206868526013</v>
       </c>
       <c r="D17">
-        <v>1.007363123306882</v>
+        <v>1.008932684621158</v>
       </c>
       <c r="E17">
-        <v>0.9901701851968412</v>
+        <v>0.9921398997306945</v>
       </c>
       <c r="F17">
-        <v>1.008914210567637</v>
+        <v>1.00976380513894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041685874676473</v>
+        <v>1.042479987716105</v>
       </c>
       <c r="J17">
-        <v>1.008468654741488</v>
+        <v>1.010379669823312</v>
       </c>
       <c r="K17">
-        <v>1.02124327035014</v>
+        <v>1.022785883538582</v>
       </c>
       <c r="L17">
-        <v>1.004352790176605</v>
+        <v>1.00628716299471</v>
       </c>
       <c r="M17">
-        <v>1.022767726039772</v>
+        <v>1.02360277820605</v>
       </c>
       <c r="N17">
-        <v>1.006228235991677</v>
+        <v>1.009767313479852</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.02773885370478</v>
+        <v>1.02839894831179</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026171926300123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02727942620627</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018450780446578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.98083584604965</v>
+        <v>0.9828177772151034</v>
       </c>
       <c r="D18">
-        <v>1.007723328749337</v>
+        <v>1.009272054363128</v>
       </c>
       <c r="E18">
-        <v>0.9906457612353321</v>
+        <v>0.9926063706734813</v>
       </c>
       <c r="F18">
-        <v>1.008541928737282</v>
+        <v>1.009390191836832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041767675463682</v>
+        <v>1.042551419764324</v>
       </c>
       <c r="J18">
-        <v>1.008642927290379</v>
+        <v>1.010546001230968</v>
       </c>
       <c r="K18">
-        <v>1.021410066004412</v>
+        <v>1.022932636645246</v>
       </c>
       <c r="L18">
-        <v>1.004627938483834</v>
+        <v>1.006553960020284</v>
       </c>
       <c r="M18">
-        <v>1.022214828513884</v>
+        <v>1.02304878325551</v>
       </c>
       <c r="N18">
-        <v>1.006143682871128</v>
+        <v>1.009682833885206</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027061216289765</v>
+        <v>1.027720583653629</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026278064079427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027370266963378</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018435264801519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9801917015725788</v>
+        <v>0.9823092191344424</v>
       </c>
       <c r="D19">
-        <v>1.007236969505497</v>
+        <v>1.008896803881748</v>
       </c>
       <c r="E19">
-        <v>0.9899661787311774</v>
+        <v>0.9920610644825968</v>
       </c>
       <c r="F19">
-        <v>1.006924251472047</v>
+        <v>1.007835342213269</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041487086272595</v>
+        <v>1.042327102248306</v>
       </c>
       <c r="J19">
-        <v>1.007885367524229</v>
+        <v>1.009918989007946</v>
       </c>
       <c r="K19">
-        <v>1.020868062229156</v>
+        <v>1.022499984614021</v>
       </c>
       <c r="L19">
-        <v>1.003894899213999</v>
+        <v>1.005952968256646</v>
       </c>
       <c r="M19">
-        <v>1.020560616191506</v>
+        <v>1.021456358956678</v>
       </c>
       <c r="N19">
-        <v>1.005685667490181</v>
+        <v>1.009384566635012</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025422889724581</v>
+        <v>1.026131347720942</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025901325625151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027071470419546</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018267887680765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9759999596187225</v>
+        <v>0.9786698266999986</v>
       </c>
       <c r="D20">
-        <v>1.004336003090421</v>
+        <v>1.006483345638841</v>
       </c>
       <c r="E20">
-        <v>0.9860119738383157</v>
+        <v>0.9886516106658937</v>
       </c>
       <c r="F20">
-        <v>1.001919074708133</v>
+        <v>1.003079678415762</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04017290641634</v>
+        <v>1.04125917737884</v>
       </c>
       <c r="J20">
-        <v>1.004488453836304</v>
+        <v>1.007048495951444</v>
       </c>
       <c r="K20">
-        <v>1.018303035207035</v>
+        <v>1.020413143233245</v>
       </c>
       <c r="L20">
-        <v>1.000305327560074</v>
+        <v>1.002896986795887</v>
       </c>
       <c r="M20">
-        <v>1.015928263228294</v>
+        <v>1.01706859069099</v>
       </c>
       <c r="N20">
-        <v>1.004159530690878</v>
+        <v>1.008467475038644</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021220039931819</v>
+        <v>1.022122510421624</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024091704544949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025600361298636</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017665855998665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9685758540693582</v>
+        <v>0.972174364850333</v>
       </c>
       <c r="D21">
-        <v>0.999364105953215</v>
+        <v>1.002338283793187</v>
       </c>
       <c r="E21">
-        <v>0.9793198629218469</v>
+        <v>0.9828708451990603</v>
       </c>
       <c r="F21">
-        <v>0.9967806888450144</v>
+        <v>0.998348721026151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038146259873018</v>
+        <v>1.039648970808845</v>
       </c>
       <c r="J21">
-        <v>0.9994488027871459</v>
+        <v>1.002883358466367</v>
       </c>
       <c r="K21">
-        <v>1.014357535565208</v>
+        <v>1.017275491672609</v>
       </c>
       <c r="L21">
-        <v>0.9947039121713109</v>
+        <v>0.9981841673573216</v>
       </c>
       <c r="M21">
-        <v>1.011823309823548</v>
+        <v>1.013361445070701</v>
       </c>
       <c r="N21">
-        <v>1.002296064230393</v>
+        <v>1.007734485542534</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017929382977482</v>
+        <v>1.019146752527501</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02130531383623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023385521760448</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016936608882701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9638468503694665</v>
+        <v>0.9680466176373768</v>
       </c>
       <c r="D22">
-        <v>0.9962017675311196</v>
+        <v>0.9997091862106522</v>
       </c>
       <c r="E22">
-        <v>0.9750734411050904</v>
+        <v>0.9792124140576658</v>
       </c>
       <c r="F22">
-        <v>0.9936497586445115</v>
+        <v>0.9954815812809539</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036845432832225</v>
+        <v>1.038616213699776</v>
       </c>
       <c r="J22">
-        <v>0.9962601404250737</v>
+        <v>1.000256284667006</v>
       </c>
       <c r="K22">
-        <v>1.011848845540468</v>
+        <v>1.015286406381189</v>
       </c>
       <c r="L22">
-        <v>0.9911554161897309</v>
+        <v>0.9952072395364239</v>
       </c>
       <c r="M22">
-        <v>1.009348073506952</v>
+        <v>1.011143083510492</v>
       </c>
       <c r="N22">
-        <v>1.001122809227434</v>
+        <v>1.007274790868604</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.015970332529685</v>
+        <v>1.017391011662271</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019517752305209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021964099897042</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016475830646602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9663473339875809</v>
+        <v>0.9702061259971649</v>
       </c>
       <c r="D23">
-        <v>0.9978673177265349</v>
+        <v>1.001075404904489</v>
       </c>
       <c r="E23">
-        <v>0.9773160667655094</v>
+        <v>0.9811216200832398</v>
       </c>
       <c r="F23">
-        <v>0.9953081269145779</v>
+        <v>0.9969903505595145</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037530316283608</v>
+        <v>1.039150627672907</v>
       </c>
       <c r="J23">
-        <v>0.9979405929734653</v>
+        <v>1.001618312743948</v>
       </c>
       <c r="K23">
-        <v>1.013167348040777</v>
+        <v>1.016313269562458</v>
       </c>
       <c r="L23">
-        <v>0.9930271126077709</v>
+        <v>0.9967548444613292</v>
       </c>
       <c r="M23">
-        <v>1.010658125807602</v>
+        <v>1.012307465892912</v>
       </c>
       <c r="N23">
-        <v>1.001733795154192</v>
+        <v>1.00746056153976</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.017007187200918</v>
+        <v>1.018312572444973</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020440198549639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022679399059678</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016707777718981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.97591678774603</v>
+        <v>0.9786084874744871</v>
       </c>
       <c r="D24">
-        <v>1.004262931148015</v>
+        <v>1.006427340734599</v>
       </c>
       <c r="E24">
-        <v>0.9859192384093196</v>
+        <v>0.9885805167515432</v>
       </c>
       <c r="F24">
-        <v>1.001686549832048</v>
+        <v>1.002857578021376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040127614064659</v>
+        <v>1.041222534471526</v>
       </c>
       <c r="J24">
-        <v>1.004374490863175</v>
+        <v>1.006955600807022</v>
       </c>
       <c r="K24">
-        <v>1.018215596240456</v>
+        <v>1.020342517454366</v>
       </c>
       <c r="L24">
-        <v>1.000198224096426</v>
+        <v>1.002811183672747</v>
       </c>
       <c r="M24">
-        <v>1.01568411235881</v>
+        <v>1.016834696539446</v>
       </c>
       <c r="N24">
-        <v>1.004084081512883</v>
+        <v>1.008416691763314</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020985042077456</v>
+        <v>1.021895677254163</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024002033916398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025519939093272</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017635103102594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9864402060538835</v>
+        <v>0.9881935216892168</v>
       </c>
       <c r="D25">
-        <v>1.011314666269985</v>
+        <v>1.012579622173158</v>
       </c>
       <c r="E25">
-        <v>0.995412268411365</v>
+        <v>0.9971502686110029</v>
       </c>
       <c r="F25">
-        <v>1.008775419981997</v>
+        <v>1.009536391293339</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042917649651874</v>
+        <v>1.043558749069498</v>
       </c>
       <c r="J25">
-        <v>1.011432690076022</v>
+        <v>1.01312486011672</v>
       </c>
       <c r="K25">
-        <v>1.023739839559894</v>
+        <v>1.024985744639678</v>
       </c>
       <c r="L25">
-        <v>1.00808222294351</v>
+        <v>1.009792984657456</v>
       </c>
       <c r="M25">
-        <v>1.021239019287368</v>
+        <v>1.021988449093709</v>
       </c>
       <c r="N25">
-        <v>1.006658859264137</v>
+        <v>1.010117477643652</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025381487534851</v>
+        <v>1.025974623512997</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027905153725837</v>
+        <v>1.028799771871151</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018728556989202</v>
       </c>
     </row>
   </sheetData>
